--- a/Code/Results/Cases/Case_4_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_46/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9658487995837118</v>
+        <v>0.9658487995837115</v>
       </c>
       <c r="D2">
-        <v>0.9913168716993049</v>
+        <v>0.9913168716993048</v>
       </c>
       <c r="E2">
-        <v>0.9742748778377963</v>
+        <v>0.9742748778377964</v>
       </c>
       <c r="F2">
-        <v>0.9407956732937502</v>
+        <v>0.94079567329375</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.032113383813688</v>
       </c>
       <c r="J2">
-        <v>0.9891012595518557</v>
+        <v>0.9891012595518553</v>
       </c>
       <c r="K2">
-        <v>1.002898516622232</v>
+        <v>1.002898516622231</v>
       </c>
       <c r="L2">
-        <v>0.9861046323216373</v>
+        <v>0.9861046323216371</v>
       </c>
       <c r="M2">
-        <v>0.953146451997541</v>
+        <v>0.9531464519975407</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9761544107142986</v>
+        <v>0.9761544107142958</v>
       </c>
       <c r="D3">
-        <v>0.9989262514297311</v>
+        <v>0.9989262514297286</v>
       </c>
       <c r="E3">
-        <v>0.9839951397622055</v>
+        <v>0.9839951397622023</v>
       </c>
       <c r="F3">
-        <v>0.9542769808491015</v>
+        <v>0.954276980849098</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035464807460815</v>
+        <v>1.035464807460814</v>
       </c>
       <c r="J3">
-        <v>0.9973169347642661</v>
+        <v>0.9973169347642631</v>
       </c>
       <c r="K3">
-        <v>1.009572889530552</v>
+        <v>1.00957288953055</v>
       </c>
       <c r="L3">
-        <v>0.9948369862784592</v>
+        <v>0.994836986278456</v>
       </c>
       <c r="M3">
-        <v>0.9655303714517288</v>
+        <v>0.9655303714517254</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9825242384435412</v>
+        <v>0.982524238443544</v>
       </c>
       <c r="D4">
-        <v>1.003631901933407</v>
+        <v>1.00363190193341</v>
       </c>
       <c r="E4">
-        <v>0.9900094232657571</v>
+        <v>0.9900094232657598</v>
       </c>
       <c r="F4">
-        <v>0.9625928961368225</v>
+        <v>0.962592896136825</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037516687011246</v>
+        <v>1.037516687011248</v>
       </c>
       <c r="J4">
-        <v>1.002385792162221</v>
+        <v>1.002385792162224</v>
       </c>
       <c r="K4">
-        <v>1.013686689850281</v>
+        <v>1.013686689850284</v>
       </c>
       <c r="L4">
-        <v>1.00022994028706</v>
+        <v>1.000229940287063</v>
       </c>
       <c r="M4">
-        <v>0.9731647907925319</v>
+        <v>0.9731647907925344</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9851366687938494</v>
+        <v>0.9851366687938484</v>
       </c>
       <c r="D5">
-        <v>1.005562139779327</v>
+        <v>1.005562139779326</v>
       </c>
       <c r="E5">
-        <v>0.9924774303039753</v>
+        <v>0.9924774303039741</v>
       </c>
       <c r="F5">
-        <v>0.9660003582097552</v>
+        <v>0.9660003582097546</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03835340971847</v>
+        <v>1.038353409718469</v>
       </c>
       <c r="J5">
-        <v>1.004462414442478</v>
+        <v>1.004462414442477</v>
       </c>
       <c r="K5">
-        <v>1.015370967284829</v>
+        <v>1.015370967284828</v>
       </c>
       <c r="L5">
-        <v>1.002440598714578</v>
+        <v>1.002440598714577</v>
       </c>
       <c r="M5">
-        <v>0.9762918129595134</v>
+        <v>0.9762918129595127</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9855716296605194</v>
+        <v>0.9855716296605203</v>
       </c>
       <c r="D6">
         <v>1.005883530949439</v>
       </c>
       <c r="E6">
-        <v>0.9928884243690043</v>
+        <v>0.9928884243690053</v>
       </c>
       <c r="F6">
-        <v>0.9665675303228158</v>
+        <v>0.9665675303228173</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -594,13 +594,13 @@
         <v>1.004808031687218</v>
       </c>
       <c r="K6">
-        <v>1.015651219980821</v>
+        <v>1.015651219980822</v>
       </c>
       <c r="L6">
-        <v>1.002808597628841</v>
+        <v>1.002808597628842</v>
       </c>
       <c r="M6">
-        <v>0.9768122329109946</v>
+        <v>0.9768122329109963</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9825593956636923</v>
+        <v>0.9825593956636917</v>
       </c>
       <c r="D7">
-        <v>1.003657877416572</v>
+        <v>1.003657877416571</v>
       </c>
       <c r="E7">
-        <v>0.9900426314811075</v>
+        <v>0.990042631481107</v>
       </c>
       <c r="F7">
-        <v>0.9626387638577681</v>
+        <v>0.9626387638577674</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.03752796655564</v>
       </c>
       <c r="J7">
-        <v>1.002413747627369</v>
+        <v>1.002413747627368</v>
       </c>
       <c r="K7">
         <v>1.013709367952082</v>
       </c>
       <c r="L7">
-        <v>1.000259695162667</v>
+        <v>1.000259695162666</v>
       </c>
       <c r="M7">
-        <v>0.9732068883890908</v>
+        <v>0.97320688838909</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9693973733097073</v>
+        <v>0.9693973733097072</v>
       </c>
       <c r="D8">
-        <v>0.9939363867819017</v>
+        <v>0.9939363867819014</v>
       </c>
       <c r="E8">
-        <v>0.9776204908279733</v>
+        <v>0.977620490827973</v>
       </c>
       <c r="F8">
-        <v>0.9454419521525496</v>
+        <v>0.9454419521525491</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.033271512473253</v>
       </c>
       <c r="J8">
-        <v>0.9919321330241446</v>
+        <v>0.9919321330241441</v>
       </c>
       <c r="K8">
-        <v>1.005199124893701</v>
+        <v>1.0051991248937</v>
       </c>
       <c r="L8">
-        <v>0.9891123897797607</v>
+        <v>0.9891123897797605</v>
       </c>
       <c r="M8">
-        <v>0.9574154308347843</v>
+        <v>0.9574154308347838</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9435897510589615</v>
+        <v>0.9435897510589571</v>
       </c>
       <c r="D9">
-        <v>0.9749078252329377</v>
+        <v>0.9749078252329343</v>
       </c>
       <c r="E9">
-        <v>0.9533223408020787</v>
+        <v>0.9533223408020743</v>
       </c>
       <c r="F9">
-        <v>0.9115256128082634</v>
+        <v>0.9115256128082582</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.024765911517456</v>
+        <v>1.024765911517454</v>
       </c>
       <c r="J9">
-        <v>0.9713047960677548</v>
+        <v>0.9713047960677506</v>
       </c>
       <c r="K9">
-        <v>0.9884215616489048</v>
+        <v>0.9884215616489015</v>
       </c>
       <c r="L9">
-        <v>0.9672210274477424</v>
+        <v>0.9672210274477383</v>
       </c>
       <c r="M9">
-        <v>0.9262381489522609</v>
+        <v>0.9262381489522559</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9240465792954863</v>
+        <v>0.9240465792954852</v>
       </c>
       <c r="D10">
-        <v>0.9605442303930282</v>
+        <v>0.9605442303930273</v>
       </c>
       <c r="E10">
-        <v>0.9349736127873026</v>
+        <v>0.9349736127873011</v>
       </c>
       <c r="F10">
-        <v>0.8855975426207269</v>
+        <v>0.8855975426207261</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.018223006610905</v>
+        <v>1.018223006610904</v>
       </c>
       <c r="J10">
-        <v>0.9556351844769185</v>
+        <v>0.9556351844769178</v>
       </c>
       <c r="K10">
-        <v>0.9756643860205627</v>
+        <v>0.9756643860205619</v>
       </c>
       <c r="L10">
-        <v>0.9506253390854327</v>
+        <v>0.9506253390854312</v>
       </c>
       <c r="M10">
-        <v>0.9023930408673327</v>
+        <v>0.9023930408673316</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9148483015373291</v>
+        <v>0.9148483015373305</v>
       </c>
       <c r="D11">
-        <v>0.9538015900638764</v>
+        <v>0.9538015900638769</v>
       </c>
       <c r="E11">
-        <v>0.9263528723549375</v>
+        <v>0.9263528723549386</v>
       </c>
       <c r="F11">
-        <v>0.8733000338712</v>
+        <v>0.8733000338712026</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.015121641959148</v>
       </c>
       <c r="J11">
-        <v>0.9482489664648076</v>
+        <v>0.9482489664648088</v>
       </c>
       <c r="K11">
-        <v>0.9696506970379438</v>
+        <v>0.9696506970379444</v>
       </c>
       <c r="L11">
-        <v>0.9428114793330753</v>
+        <v>0.9428114793330765</v>
       </c>
       <c r="M11">
-        <v>0.8910848146013763</v>
+        <v>0.8910848146013786</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,7 +801,7 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9112999261009644</v>
+        <v>0.9112999261009643</v>
       </c>
       <c r="D12">
         <v>0.9512039274074678</v>
@@ -810,7 +810,7 @@
         <v>0.9230299283339439</v>
       </c>
       <c r="F12">
-        <v>0.8685376189901863</v>
+        <v>0.868537618990186</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -822,10 +822,10 @@
         <v>0.9453980084048395</v>
       </c>
       <c r="K12">
-        <v>0.967329750873127</v>
+        <v>0.9673297508731271</v>
       </c>
       <c r="L12">
-        <v>0.9397968806310308</v>
+        <v>0.9397968806310306</v>
       </c>
       <c r="M12">
         <v>0.8867062037298614</v>
@@ -839,16 +839,16 @@
         <v>1.049999999999999</v>
       </c>
       <c r="C13">
-        <v>0.9120674355054472</v>
+        <v>0.9120674355054463</v>
       </c>
       <c r="D13">
-        <v>0.9517656315541083</v>
+        <v>0.9517656315541081</v>
       </c>
       <c r="E13">
-        <v>0.9237485524982106</v>
+        <v>0.9237485524982096</v>
       </c>
       <c r="F13">
-        <v>0.869568639271164</v>
+        <v>0.8695686392711635</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.014181787502529</v>
       </c>
       <c r="J13">
-        <v>0.946014739028614</v>
+        <v>0.9460147390286133</v>
       </c>
       <c r="K13">
-        <v>0.9678318111405506</v>
+        <v>0.9678318111405503</v>
       </c>
       <c r="L13">
-        <v>0.9404489449992268</v>
+        <v>0.9404489449992257</v>
       </c>
       <c r="M13">
-        <v>0.8876540933979536</v>
+        <v>0.8876540933979529</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9145578240762962</v>
+        <v>0.9145578240762937</v>
       </c>
       <c r="D14">
-        <v>0.953588866365312</v>
+        <v>0.95358886636531</v>
       </c>
       <c r="E14">
-        <v>0.9260807939170707</v>
+        <v>0.9260807939170683</v>
       </c>
       <c r="F14">
-        <v>0.8729105743804721</v>
+        <v>0.8729105743804689</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.015023514195775</v>
+        <v>1.015023514195774</v>
       </c>
       <c r="J14">
-        <v>0.9480156132559351</v>
+        <v>0.9480156132559329</v>
       </c>
       <c r="K14">
-        <v>0.9694607190423854</v>
+        <v>0.9694607190423833</v>
       </c>
       <c r="L14">
-        <v>0.9425647027732382</v>
+        <v>0.9425647027732361</v>
       </c>
       <c r="M14">
-        <v>0.8907267245421172</v>
+        <v>0.8907267245421141</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9160740393936025</v>
+        <v>0.916074039393604</v>
       </c>
       <c r="D15">
-        <v>0.9546993700512908</v>
+        <v>0.954699370051292</v>
       </c>
       <c r="E15">
-        <v>0.9275010796657864</v>
+        <v>0.9275010796657883</v>
       </c>
       <c r="F15">
-        <v>0.874942676153749</v>
+        <v>0.8749426761537503</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.015535595062677</v>
       </c>
       <c r="J15">
-        <v>0.9492335904305117</v>
+        <v>0.9492335904305131</v>
       </c>
       <c r="K15">
-        <v>0.9704523126042084</v>
+        <v>0.9704523126042096</v>
       </c>
       <c r="L15">
-        <v>0.9438528004508481</v>
+        <v>0.9438528004508497</v>
       </c>
       <c r="M15">
-        <v>0.8925951794625</v>
+        <v>0.8925951794625016</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9246398634903823</v>
+        <v>0.9246398634903826</v>
       </c>
       <c r="D16">
-        <v>0.9609795466599607</v>
+        <v>0.9609795466599609</v>
       </c>
       <c r="E16">
-        <v>0.9355299842383823</v>
+        <v>0.9355299842383827</v>
       </c>
       <c r="F16">
-        <v>0.8863884846631179</v>
+        <v>0.8863884846631183</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.018422619216031</v>
       </c>
       <c r="J16">
-        <v>0.9561113708356006</v>
+        <v>0.9561113708356009</v>
       </c>
       <c r="K16">
-        <v>0.9760521016955566</v>
+        <v>0.9760521016955568</v>
       </c>
       <c r="L16">
-        <v>0.9511292825555618</v>
+        <v>0.951129282555562</v>
       </c>
       <c r="M16">
-        <v>0.9031204188315093</v>
+        <v>0.9031204188315095</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9298028118443915</v>
+        <v>0.9298028118443903</v>
       </c>
       <c r="D17">
-        <v>0.9647698414066933</v>
+        <v>0.9647698414066924</v>
       </c>
       <c r="E17">
-        <v>0.9403734325761283</v>
+        <v>0.9403734325761273</v>
       </c>
       <c r="F17">
-        <v>0.8932607693972368</v>
+        <v>0.8932607693972355</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.020157325701303</v>
+        <v>1.020157325701302</v>
       </c>
       <c r="J17">
-        <v>0.96025408000654</v>
+        <v>0.9602540800065387</v>
       </c>
       <c r="K17">
-        <v>0.979425128553494</v>
+        <v>0.9794251285534933</v>
       </c>
       <c r="L17">
-        <v>0.9555144593817758</v>
+        <v>0.9555144593817749</v>
       </c>
       <c r="M17">
-        <v>0.909440600426229</v>
+        <v>0.9094406004262278</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.932744959994019</v>
+        <v>0.9327449599940169</v>
       </c>
       <c r="D18">
-        <v>0.9669313496837585</v>
+        <v>0.9669313496837569</v>
       </c>
       <c r="E18">
-        <v>0.943134895025852</v>
+        <v>0.9431348950258498</v>
       </c>
       <c r="F18">
-        <v>0.8971686987198708</v>
+        <v>0.8971686987198682</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02114384048584</v>
+        <v>1.021143840485839</v>
       </c>
       <c r="J18">
-        <v>0.9626138169854838</v>
+        <v>0.9626138169854818</v>
       </c>
       <c r="K18">
-        <v>0.9813463959277288</v>
+        <v>0.981346395927727</v>
       </c>
       <c r="L18">
-        <v>0.9580131161308376</v>
+        <v>0.9580131161308354</v>
       </c>
       <c r="M18">
-        <v>0.9130346623468097</v>
+        <v>0.9130346623468073</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,13 +1067,13 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9337369478588262</v>
+        <v>0.9337369478588267</v>
       </c>
       <c r="D19">
-        <v>0.9676603823752316</v>
+        <v>0.9676603823752319</v>
       </c>
       <c r="E19">
-        <v>0.9440661883896282</v>
+        <v>0.9440661883896286</v>
       </c>
       <c r="F19">
         <v>0.898485010095839</v>
@@ -1085,13 +1085,13 @@
         <v>1.021476108443517</v>
       </c>
       <c r="J19">
-        <v>0.9634092618746327</v>
+        <v>0.963409261874633</v>
       </c>
       <c r="K19">
-        <v>0.9819940213558693</v>
+        <v>0.9819940213558694</v>
       </c>
       <c r="L19">
-        <v>0.9588555243884738</v>
+        <v>0.9588555243884743</v>
       </c>
       <c r="M19">
         <v>0.9142452565574216</v>
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9292561793712835</v>
+        <v>0.929256179371283</v>
       </c>
       <c r="D20">
-        <v>0.9643683707609765</v>
+        <v>0.964368370760976</v>
       </c>
       <c r="E20">
-        <v>0.9398604809904645</v>
+        <v>0.9398604809904638</v>
       </c>
       <c r="F20">
-        <v>0.8925340508873881</v>
+        <v>0.8925340508873877</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.019973871192009</v>
       </c>
       <c r="J20">
-        <v>0.9598155724110904</v>
+        <v>0.9598155724110899</v>
       </c>
       <c r="K20">
-        <v>0.9790680955558505</v>
+        <v>0.9790680955558501</v>
       </c>
       <c r="L20">
-        <v>0.9550502016971071</v>
+        <v>0.9550502016971067</v>
       </c>
       <c r="M20">
-        <v>0.9087722528710166</v>
+        <v>0.9087722528710165</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9138283048829311</v>
+        <v>0.9138283048829321</v>
       </c>
       <c r="D21">
-        <v>0.9530546791546435</v>
+        <v>0.9530546791546445</v>
       </c>
       <c r="E21">
-        <v>0.9253975263614133</v>
+        <v>0.925397526361414</v>
       </c>
       <c r="F21">
-        <v>0.8719321543077336</v>
+        <v>0.8719321543077345</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.014777024049343</v>
+        <v>1.014777024049344</v>
       </c>
       <c r="J21">
-        <v>0.947429533056519</v>
+        <v>0.9474295330565199</v>
       </c>
       <c r="K21">
-        <v>0.9689835831294359</v>
+        <v>0.9689835831294368</v>
       </c>
       <c r="L21">
-        <v>0.941944932132972</v>
+        <v>0.9419449321329726</v>
       </c>
       <c r="M21">
-        <v>0.8898271252895394</v>
+        <v>0.8898271252895402</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9033503268307805</v>
+        <v>0.9033503268307828</v>
       </c>
       <c r="D22">
-        <v>0.9453916029656753</v>
+        <v>0.9453916029656766</v>
       </c>
       <c r="E22">
-        <v>0.9155907215606859</v>
+        <v>0.9155907215606884</v>
       </c>
       <c r="F22">
-        <v>0.8578274871583191</v>
+        <v>0.8578274871583218</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.011229832364669</v>
+        <v>1.01122983236467</v>
       </c>
       <c r="J22">
-        <v>0.9390079148684577</v>
+        <v>0.9390079148684598</v>
       </c>
       <c r="K22">
-        <v>0.962128451738492</v>
+        <v>0.9621284517384936</v>
       </c>
       <c r="L22">
-        <v>0.9330427780334101</v>
+        <v>0.9330427780334125</v>
       </c>
       <c r="M22">
-        <v>0.8768611949337312</v>
+        <v>0.8768611949337338</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9089875231674459</v>
+        <v>0.9089875231674442</v>
       </c>
       <c r="D23">
-        <v>0.9495121558782418</v>
+        <v>0.9495121558782406</v>
       </c>
       <c r="E23">
-        <v>0.9208652265421958</v>
+        <v>0.920865226542194</v>
       </c>
       <c r="F23">
-        <v>0.8654281630383766</v>
+        <v>0.8654281630383751</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.013139773394617</v>
       </c>
       <c r="J23">
-        <v>0.9435396487576013</v>
+        <v>0.9435396487575998</v>
       </c>
       <c r="K23">
-        <v>0.9658169822592207</v>
+        <v>0.9658169822592196</v>
       </c>
       <c r="L23">
-        <v>0.9378322687355011</v>
+        <v>0.9378322687354996</v>
       </c>
       <c r="M23">
-        <v>0.8838476099164839</v>
+        <v>0.8838476099164824</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9295033917237299</v>
+        <v>0.9295033917237292</v>
       </c>
       <c r="D24">
-        <v>0.9645499293848995</v>
+        <v>0.9645499293848989</v>
       </c>
       <c r="E24">
-        <v>0.9400924570008388</v>
+        <v>0.9400924570008384</v>
       </c>
       <c r="F24">
-        <v>0.8928627320275728</v>
+        <v>0.8928627320275725</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.020056844088457</v>
       </c>
       <c r="J24">
-        <v>0.9600138889050608</v>
+        <v>0.9600138889050602</v>
       </c>
       <c r="K24">
-        <v>0.9792295650702761</v>
+        <v>0.9792295650702758</v>
       </c>
       <c r="L24">
-        <v>0.9552601612396453</v>
+        <v>0.955260161239645</v>
       </c>
       <c r="M24">
-        <v>0.9090745336872776</v>
+        <v>0.9090745336872771</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9506235398654943</v>
+        <v>0.9506235398654913</v>
       </c>
       <c r="D25">
-        <v>0.9800882029556842</v>
+        <v>0.9800882029556818</v>
       </c>
       <c r="E25">
-        <v>0.9599370658463935</v>
+        <v>0.9599370658463907</v>
       </c>
       <c r="F25">
-        <v>0.9208009384588729</v>
+        <v>0.9208009384588699</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027101604906434</v>
+        <v>1.027101604906433</v>
       </c>
       <c r="J25">
-        <v>0.9769350680859122</v>
+        <v>0.9769350680859096</v>
       </c>
       <c r="K25">
-        <v>0.9930036941184374</v>
+        <v>0.993003694118435</v>
       </c>
       <c r="L25">
-        <v>0.9731908666894356</v>
+        <v>0.9731908666894327</v>
       </c>
       <c r="M25">
-        <v>0.9347671806419965</v>
+        <v>0.9347671806419936</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_46/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9658487995837115</v>
+        <v>0.9658487995837118</v>
       </c>
       <c r="D2">
-        <v>0.9913168716993048</v>
+        <v>0.9913168716993049</v>
       </c>
       <c r="E2">
-        <v>0.9742748778377964</v>
+        <v>0.9742748778377963</v>
       </c>
       <c r="F2">
-        <v>0.94079567329375</v>
+        <v>0.9407956732937502</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.032113383813688</v>
       </c>
       <c r="J2">
-        <v>0.9891012595518553</v>
+        <v>0.9891012595518557</v>
       </c>
       <c r="K2">
-        <v>1.002898516622231</v>
+        <v>1.002898516622232</v>
       </c>
       <c r="L2">
-        <v>0.9861046323216371</v>
+        <v>0.9861046323216373</v>
       </c>
       <c r="M2">
-        <v>0.9531464519975407</v>
+        <v>0.953146451997541</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9761544107142958</v>
+        <v>0.9761544107142986</v>
       </c>
       <c r="D3">
-        <v>0.9989262514297286</v>
+        <v>0.9989262514297311</v>
       </c>
       <c r="E3">
-        <v>0.9839951397622023</v>
+        <v>0.9839951397622055</v>
       </c>
       <c r="F3">
-        <v>0.954276980849098</v>
+        <v>0.9542769808491015</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035464807460814</v>
+        <v>1.035464807460815</v>
       </c>
       <c r="J3">
-        <v>0.9973169347642631</v>
+        <v>0.9973169347642661</v>
       </c>
       <c r="K3">
-        <v>1.00957288953055</v>
+        <v>1.009572889530552</v>
       </c>
       <c r="L3">
-        <v>0.994836986278456</v>
+        <v>0.9948369862784592</v>
       </c>
       <c r="M3">
-        <v>0.9655303714517254</v>
+        <v>0.9655303714517288</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.982524238443544</v>
+        <v>0.9825242384435412</v>
       </c>
       <c r="D4">
-        <v>1.00363190193341</v>
+        <v>1.003631901933407</v>
       </c>
       <c r="E4">
-        <v>0.9900094232657598</v>
+        <v>0.9900094232657571</v>
       </c>
       <c r="F4">
-        <v>0.962592896136825</v>
+        <v>0.9625928961368225</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037516687011248</v>
+        <v>1.037516687011246</v>
       </c>
       <c r="J4">
-        <v>1.002385792162224</v>
+        <v>1.002385792162221</v>
       </c>
       <c r="K4">
-        <v>1.013686689850284</v>
+        <v>1.013686689850281</v>
       </c>
       <c r="L4">
-        <v>1.000229940287063</v>
+        <v>1.00022994028706</v>
       </c>
       <c r="M4">
-        <v>0.9731647907925344</v>
+        <v>0.9731647907925319</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9851366687938484</v>
+        <v>0.9851366687938494</v>
       </c>
       <c r="D5">
-        <v>1.005562139779326</v>
+        <v>1.005562139779327</v>
       </c>
       <c r="E5">
-        <v>0.9924774303039741</v>
+        <v>0.9924774303039753</v>
       </c>
       <c r="F5">
-        <v>0.9660003582097546</v>
+        <v>0.9660003582097552</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038353409718469</v>
+        <v>1.03835340971847</v>
       </c>
       <c r="J5">
-        <v>1.004462414442477</v>
+        <v>1.004462414442478</v>
       </c>
       <c r="K5">
-        <v>1.015370967284828</v>
+        <v>1.015370967284829</v>
       </c>
       <c r="L5">
-        <v>1.002440598714577</v>
+        <v>1.002440598714578</v>
       </c>
       <c r="M5">
-        <v>0.9762918129595127</v>
+        <v>0.9762918129595134</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9855716296605203</v>
+        <v>0.9855716296605194</v>
       </c>
       <c r="D6">
         <v>1.005883530949439</v>
       </c>
       <c r="E6">
-        <v>0.9928884243690053</v>
+        <v>0.9928884243690043</v>
       </c>
       <c r="F6">
-        <v>0.9665675303228173</v>
+        <v>0.9665675303228158</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -594,13 +594,13 @@
         <v>1.004808031687218</v>
       </c>
       <c r="K6">
-        <v>1.015651219980822</v>
+        <v>1.015651219980821</v>
       </c>
       <c r="L6">
-        <v>1.002808597628842</v>
+        <v>1.002808597628841</v>
       </c>
       <c r="M6">
-        <v>0.9768122329109963</v>
+        <v>0.9768122329109946</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9825593956636917</v>
+        <v>0.9825593956636923</v>
       </c>
       <c r="D7">
-        <v>1.003657877416571</v>
+        <v>1.003657877416572</v>
       </c>
       <c r="E7">
-        <v>0.990042631481107</v>
+        <v>0.9900426314811075</v>
       </c>
       <c r="F7">
-        <v>0.9626387638577674</v>
+        <v>0.9626387638577681</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.03752796655564</v>
       </c>
       <c r="J7">
-        <v>1.002413747627368</v>
+        <v>1.002413747627369</v>
       </c>
       <c r="K7">
         <v>1.013709367952082</v>
       </c>
       <c r="L7">
-        <v>1.000259695162666</v>
+        <v>1.000259695162667</v>
       </c>
       <c r="M7">
-        <v>0.97320688838909</v>
+        <v>0.9732068883890908</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9693973733097072</v>
+        <v>0.9693973733097073</v>
       </c>
       <c r="D8">
-        <v>0.9939363867819014</v>
+        <v>0.9939363867819017</v>
       </c>
       <c r="E8">
-        <v>0.977620490827973</v>
+        <v>0.9776204908279733</v>
       </c>
       <c r="F8">
-        <v>0.9454419521525491</v>
+        <v>0.9454419521525496</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.033271512473253</v>
       </c>
       <c r="J8">
-        <v>0.9919321330241441</v>
+        <v>0.9919321330241446</v>
       </c>
       <c r="K8">
-        <v>1.0051991248937</v>
+        <v>1.005199124893701</v>
       </c>
       <c r="L8">
-        <v>0.9891123897797605</v>
+        <v>0.9891123897797607</v>
       </c>
       <c r="M8">
-        <v>0.9574154308347838</v>
+        <v>0.9574154308347843</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9435897510589571</v>
+        <v>0.9435897510589615</v>
       </c>
       <c r="D9">
-        <v>0.9749078252329343</v>
+        <v>0.9749078252329377</v>
       </c>
       <c r="E9">
-        <v>0.9533223408020743</v>
+        <v>0.9533223408020787</v>
       </c>
       <c r="F9">
-        <v>0.9115256128082582</v>
+        <v>0.9115256128082634</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.024765911517454</v>
+        <v>1.024765911517456</v>
       </c>
       <c r="J9">
-        <v>0.9713047960677506</v>
+        <v>0.9713047960677548</v>
       </c>
       <c r="K9">
-        <v>0.9884215616489015</v>
+        <v>0.9884215616489048</v>
       </c>
       <c r="L9">
-        <v>0.9672210274477383</v>
+        <v>0.9672210274477424</v>
       </c>
       <c r="M9">
-        <v>0.9262381489522559</v>
+        <v>0.9262381489522609</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9240465792954852</v>
+        <v>0.9240465792954863</v>
       </c>
       <c r="D10">
-        <v>0.9605442303930273</v>
+        <v>0.9605442303930282</v>
       </c>
       <c r="E10">
-        <v>0.9349736127873011</v>
+        <v>0.9349736127873026</v>
       </c>
       <c r="F10">
-        <v>0.8855975426207261</v>
+        <v>0.8855975426207269</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.018223006610904</v>
+        <v>1.018223006610905</v>
       </c>
       <c r="J10">
-        <v>0.9556351844769178</v>
+        <v>0.9556351844769185</v>
       </c>
       <c r="K10">
-        <v>0.9756643860205619</v>
+        <v>0.9756643860205627</v>
       </c>
       <c r="L10">
-        <v>0.9506253390854312</v>
+        <v>0.9506253390854327</v>
       </c>
       <c r="M10">
-        <v>0.9023930408673316</v>
+        <v>0.9023930408673327</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9148483015373305</v>
+        <v>0.9148483015373291</v>
       </c>
       <c r="D11">
-        <v>0.9538015900638769</v>
+        <v>0.9538015900638764</v>
       </c>
       <c r="E11">
-        <v>0.9263528723549386</v>
+        <v>0.9263528723549375</v>
       </c>
       <c r="F11">
-        <v>0.8733000338712026</v>
+        <v>0.8733000338712</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.015121641959148</v>
       </c>
       <c r="J11">
-        <v>0.9482489664648088</v>
+        <v>0.9482489664648076</v>
       </c>
       <c r="K11">
-        <v>0.9696506970379444</v>
+        <v>0.9696506970379438</v>
       </c>
       <c r="L11">
-        <v>0.9428114793330765</v>
+        <v>0.9428114793330753</v>
       </c>
       <c r="M11">
-        <v>0.8910848146013786</v>
+        <v>0.8910848146013763</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,7 +801,7 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9112999261009643</v>
+        <v>0.9112999261009644</v>
       </c>
       <c r="D12">
         <v>0.9512039274074678</v>
@@ -810,7 +810,7 @@
         <v>0.9230299283339439</v>
       </c>
       <c r="F12">
-        <v>0.868537618990186</v>
+        <v>0.8685376189901863</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -822,10 +822,10 @@
         <v>0.9453980084048395</v>
       </c>
       <c r="K12">
-        <v>0.9673297508731271</v>
+        <v>0.967329750873127</v>
       </c>
       <c r="L12">
-        <v>0.9397968806310306</v>
+        <v>0.9397968806310308</v>
       </c>
       <c r="M12">
         <v>0.8867062037298614</v>
@@ -839,16 +839,16 @@
         <v>1.049999999999999</v>
       </c>
       <c r="C13">
-        <v>0.9120674355054463</v>
+        <v>0.9120674355054472</v>
       </c>
       <c r="D13">
-        <v>0.9517656315541081</v>
+        <v>0.9517656315541083</v>
       </c>
       <c r="E13">
-        <v>0.9237485524982096</v>
+        <v>0.9237485524982106</v>
       </c>
       <c r="F13">
-        <v>0.8695686392711635</v>
+        <v>0.869568639271164</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.014181787502529</v>
       </c>
       <c r="J13">
-        <v>0.9460147390286133</v>
+        <v>0.946014739028614</v>
       </c>
       <c r="K13">
-        <v>0.9678318111405503</v>
+        <v>0.9678318111405506</v>
       </c>
       <c r="L13">
-        <v>0.9404489449992257</v>
+        <v>0.9404489449992268</v>
       </c>
       <c r="M13">
-        <v>0.8876540933979529</v>
+        <v>0.8876540933979536</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9145578240762937</v>
+        <v>0.9145578240762962</v>
       </c>
       <c r="D14">
-        <v>0.95358886636531</v>
+        <v>0.953588866365312</v>
       </c>
       <c r="E14">
-        <v>0.9260807939170683</v>
+        <v>0.9260807939170707</v>
       </c>
       <c r="F14">
-        <v>0.8729105743804689</v>
+        <v>0.8729105743804721</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.015023514195774</v>
+        <v>1.015023514195775</v>
       </c>
       <c r="J14">
-        <v>0.9480156132559329</v>
+        <v>0.9480156132559351</v>
       </c>
       <c r="K14">
-        <v>0.9694607190423833</v>
+        <v>0.9694607190423854</v>
       </c>
       <c r="L14">
-        <v>0.9425647027732361</v>
+        <v>0.9425647027732382</v>
       </c>
       <c r="M14">
-        <v>0.8907267245421141</v>
+        <v>0.8907267245421172</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.916074039393604</v>
+        <v>0.9160740393936025</v>
       </c>
       <c r="D15">
-        <v>0.954699370051292</v>
+        <v>0.9546993700512908</v>
       </c>
       <c r="E15">
-        <v>0.9275010796657883</v>
+        <v>0.9275010796657864</v>
       </c>
       <c r="F15">
-        <v>0.8749426761537503</v>
+        <v>0.874942676153749</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.015535595062677</v>
       </c>
       <c r="J15">
-        <v>0.9492335904305131</v>
+        <v>0.9492335904305117</v>
       </c>
       <c r="K15">
-        <v>0.9704523126042096</v>
+        <v>0.9704523126042084</v>
       </c>
       <c r="L15">
-        <v>0.9438528004508497</v>
+        <v>0.9438528004508481</v>
       </c>
       <c r="M15">
-        <v>0.8925951794625016</v>
+        <v>0.8925951794625</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9246398634903826</v>
+        <v>0.9246398634903823</v>
       </c>
       <c r="D16">
-        <v>0.9609795466599609</v>
+        <v>0.9609795466599607</v>
       </c>
       <c r="E16">
-        <v>0.9355299842383827</v>
+        <v>0.9355299842383823</v>
       </c>
       <c r="F16">
-        <v>0.8863884846631183</v>
+        <v>0.8863884846631179</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.018422619216031</v>
       </c>
       <c r="J16">
-        <v>0.9561113708356009</v>
+        <v>0.9561113708356006</v>
       </c>
       <c r="K16">
-        <v>0.9760521016955568</v>
+        <v>0.9760521016955566</v>
       </c>
       <c r="L16">
-        <v>0.951129282555562</v>
+        <v>0.9511292825555618</v>
       </c>
       <c r="M16">
-        <v>0.9031204188315095</v>
+        <v>0.9031204188315093</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9298028118443903</v>
+        <v>0.9298028118443915</v>
       </c>
       <c r="D17">
-        <v>0.9647698414066924</v>
+        <v>0.9647698414066933</v>
       </c>
       <c r="E17">
-        <v>0.9403734325761273</v>
+        <v>0.9403734325761283</v>
       </c>
       <c r="F17">
-        <v>0.8932607693972355</v>
+        <v>0.8932607693972368</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.020157325701302</v>
+        <v>1.020157325701303</v>
       </c>
       <c r="J17">
-        <v>0.9602540800065387</v>
+        <v>0.96025408000654</v>
       </c>
       <c r="K17">
-        <v>0.9794251285534933</v>
+        <v>0.979425128553494</v>
       </c>
       <c r="L17">
-        <v>0.9555144593817749</v>
+        <v>0.9555144593817758</v>
       </c>
       <c r="M17">
-        <v>0.9094406004262278</v>
+        <v>0.909440600426229</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9327449599940169</v>
+        <v>0.932744959994019</v>
       </c>
       <c r="D18">
-        <v>0.9669313496837569</v>
+        <v>0.9669313496837585</v>
       </c>
       <c r="E18">
-        <v>0.9431348950258498</v>
+        <v>0.943134895025852</v>
       </c>
       <c r="F18">
-        <v>0.8971686987198682</v>
+        <v>0.8971686987198708</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.021143840485839</v>
+        <v>1.02114384048584</v>
       </c>
       <c r="J18">
-        <v>0.9626138169854818</v>
+        <v>0.9626138169854838</v>
       </c>
       <c r="K18">
-        <v>0.981346395927727</v>
+        <v>0.9813463959277288</v>
       </c>
       <c r="L18">
-        <v>0.9580131161308354</v>
+        <v>0.9580131161308376</v>
       </c>
       <c r="M18">
-        <v>0.9130346623468073</v>
+        <v>0.9130346623468097</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,13 +1067,13 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9337369478588267</v>
+        <v>0.9337369478588262</v>
       </c>
       <c r="D19">
-        <v>0.9676603823752319</v>
+        <v>0.9676603823752316</v>
       </c>
       <c r="E19">
-        <v>0.9440661883896286</v>
+        <v>0.9440661883896282</v>
       </c>
       <c r="F19">
         <v>0.898485010095839</v>
@@ -1085,13 +1085,13 @@
         <v>1.021476108443517</v>
       </c>
       <c r="J19">
-        <v>0.963409261874633</v>
+        <v>0.9634092618746327</v>
       </c>
       <c r="K19">
-        <v>0.9819940213558694</v>
+        <v>0.9819940213558693</v>
       </c>
       <c r="L19">
-        <v>0.9588555243884743</v>
+        <v>0.9588555243884738</v>
       </c>
       <c r="M19">
         <v>0.9142452565574216</v>
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.929256179371283</v>
+        <v>0.9292561793712835</v>
       </c>
       <c r="D20">
-        <v>0.964368370760976</v>
+        <v>0.9643683707609765</v>
       </c>
       <c r="E20">
-        <v>0.9398604809904638</v>
+        <v>0.9398604809904645</v>
       </c>
       <c r="F20">
-        <v>0.8925340508873877</v>
+        <v>0.8925340508873881</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.019973871192009</v>
       </c>
       <c r="J20">
-        <v>0.9598155724110899</v>
+        <v>0.9598155724110904</v>
       </c>
       <c r="K20">
-        <v>0.9790680955558501</v>
+        <v>0.9790680955558505</v>
       </c>
       <c r="L20">
-        <v>0.9550502016971067</v>
+        <v>0.9550502016971071</v>
       </c>
       <c r="M20">
-        <v>0.9087722528710165</v>
+        <v>0.9087722528710166</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9138283048829321</v>
+        <v>0.9138283048829311</v>
       </c>
       <c r="D21">
-        <v>0.9530546791546445</v>
+        <v>0.9530546791546435</v>
       </c>
       <c r="E21">
-        <v>0.925397526361414</v>
+        <v>0.9253975263614133</v>
       </c>
       <c r="F21">
-        <v>0.8719321543077345</v>
+        <v>0.8719321543077336</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.014777024049344</v>
+        <v>1.014777024049343</v>
       </c>
       <c r="J21">
-        <v>0.9474295330565199</v>
+        <v>0.947429533056519</v>
       </c>
       <c r="K21">
-        <v>0.9689835831294368</v>
+        <v>0.9689835831294359</v>
       </c>
       <c r="L21">
-        <v>0.9419449321329726</v>
+        <v>0.941944932132972</v>
       </c>
       <c r="M21">
-        <v>0.8898271252895402</v>
+        <v>0.8898271252895394</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9033503268307828</v>
+        <v>0.9033503268307805</v>
       </c>
       <c r="D22">
-        <v>0.9453916029656766</v>
+        <v>0.9453916029656753</v>
       </c>
       <c r="E22">
-        <v>0.9155907215606884</v>
+        <v>0.9155907215606859</v>
       </c>
       <c r="F22">
-        <v>0.8578274871583218</v>
+        <v>0.8578274871583191</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.01122983236467</v>
+        <v>1.011229832364669</v>
       </c>
       <c r="J22">
-        <v>0.9390079148684598</v>
+        <v>0.9390079148684577</v>
       </c>
       <c r="K22">
-        <v>0.9621284517384936</v>
+        <v>0.962128451738492</v>
       </c>
       <c r="L22">
-        <v>0.9330427780334125</v>
+        <v>0.9330427780334101</v>
       </c>
       <c r="M22">
-        <v>0.8768611949337338</v>
+        <v>0.8768611949337312</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9089875231674442</v>
+        <v>0.9089875231674459</v>
       </c>
       <c r="D23">
-        <v>0.9495121558782406</v>
+        <v>0.9495121558782418</v>
       </c>
       <c r="E23">
-        <v>0.920865226542194</v>
+        <v>0.9208652265421958</v>
       </c>
       <c r="F23">
-        <v>0.8654281630383751</v>
+        <v>0.8654281630383766</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.013139773394617</v>
       </c>
       <c r="J23">
-        <v>0.9435396487575998</v>
+        <v>0.9435396487576013</v>
       </c>
       <c r="K23">
-        <v>0.9658169822592196</v>
+        <v>0.9658169822592207</v>
       </c>
       <c r="L23">
-        <v>0.9378322687354996</v>
+        <v>0.9378322687355011</v>
       </c>
       <c r="M23">
-        <v>0.8838476099164824</v>
+        <v>0.8838476099164839</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9295033917237292</v>
+        <v>0.9295033917237299</v>
       </c>
       <c r="D24">
-        <v>0.9645499293848989</v>
+        <v>0.9645499293848995</v>
       </c>
       <c r="E24">
-        <v>0.9400924570008384</v>
+        <v>0.9400924570008388</v>
       </c>
       <c r="F24">
-        <v>0.8928627320275725</v>
+        <v>0.8928627320275728</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.020056844088457</v>
       </c>
       <c r="J24">
-        <v>0.9600138889050602</v>
+        <v>0.9600138889050608</v>
       </c>
       <c r="K24">
-        <v>0.9792295650702758</v>
+        <v>0.9792295650702761</v>
       </c>
       <c r="L24">
-        <v>0.955260161239645</v>
+        <v>0.9552601612396453</v>
       </c>
       <c r="M24">
-        <v>0.9090745336872771</v>
+        <v>0.9090745336872776</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9506235398654913</v>
+        <v>0.9506235398654943</v>
       </c>
       <c r="D25">
-        <v>0.9800882029556818</v>
+        <v>0.9800882029556842</v>
       </c>
       <c r="E25">
-        <v>0.9599370658463907</v>
+        <v>0.9599370658463935</v>
       </c>
       <c r="F25">
-        <v>0.9208009384588699</v>
+        <v>0.9208009384588729</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027101604906433</v>
+        <v>1.027101604906434</v>
       </c>
       <c r="J25">
-        <v>0.9769350680859096</v>
+        <v>0.9769350680859122</v>
       </c>
       <c r="K25">
-        <v>0.993003694118435</v>
+        <v>0.9930036941184374</v>
       </c>
       <c r="L25">
-        <v>0.9731908666894327</v>
+        <v>0.9731908666894356</v>
       </c>
       <c r="M25">
-        <v>0.9347671806419936</v>
+        <v>0.9347671806419965</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_46/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9658487995837118</v>
+        <v>0.9658925185548084</v>
       </c>
       <c r="D2">
-        <v>0.9913168716993049</v>
+        <v>0.9913513241943799</v>
       </c>
       <c r="E2">
-        <v>0.9742748778377963</v>
+        <v>0.974318249276048</v>
       </c>
       <c r="F2">
-        <v>0.9407956732937502</v>
+        <v>0.9408419615282009</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032113383813688</v>
+        <v>1.032130855397141</v>
       </c>
       <c r="J2">
-        <v>0.9891012595518557</v>
+        <v>0.989143539124937</v>
       </c>
       <c r="K2">
-        <v>1.002898516622232</v>
+        <v>1.002932478465357</v>
       </c>
       <c r="L2">
-        <v>0.9861046323216373</v>
+        <v>0.9861473583215845</v>
       </c>
       <c r="M2">
-        <v>0.953146451997541</v>
+        <v>0.9531919869861092</v>
+      </c>
+      <c r="N2">
+        <v>0.9929861032666535</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9761544107142986</v>
+        <v>0.9761885525794304</v>
       </c>
       <c r="D3">
-        <v>0.9989262514297311</v>
+        <v>0.9989533379267512</v>
       </c>
       <c r="E3">
-        <v>0.9839951397622055</v>
+        <v>0.984029061545391</v>
       </c>
       <c r="F3">
-        <v>0.9542769808491015</v>
+        <v>0.9543128885388099</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035464807460815</v>
+        <v>1.035478561639205</v>
       </c>
       <c r="J3">
-        <v>0.9973169347642661</v>
+        <v>0.9973500824687933</v>
       </c>
       <c r="K3">
-        <v>1.009572889530552</v>
+        <v>1.009599628530518</v>
       </c>
       <c r="L3">
-        <v>0.9948369862784592</v>
+        <v>0.99487045614223</v>
       </c>
       <c r="M3">
-        <v>0.9655303714517288</v>
+        <v>0.9655657622976713</v>
+      </c>
+      <c r="N3">
+        <v>0.9988113171011338</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9825242384435412</v>
+        <v>0.9825526679075347</v>
       </c>
       <c r="D4">
-        <v>1.003631901933407</v>
+        <v>1.003654582264989</v>
       </c>
       <c r="E4">
-        <v>0.9900094232657571</v>
+        <v>0.9900376945683085</v>
       </c>
       <c r="F4">
-        <v>0.9625928961368225</v>
+        <v>0.9626226799715389</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037516687011246</v>
+        <v>1.037528213418584</v>
       </c>
       <c r="J4">
-        <v>1.002385792162221</v>
+        <v>1.002413458816706</v>
       </c>
       <c r="K4">
-        <v>1.013686689850281</v>
+        <v>1.0137090989096</v>
       </c>
       <c r="L4">
-        <v>1.00022994028706</v>
+        <v>1.000257861766254</v>
       </c>
       <c r="M4">
-        <v>0.9731647907925319</v>
+        <v>0.9731941792846875</v>
+      </c>
+      <c r="N4">
+        <v>1.00240108039605</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9851366687938494</v>
+        <v>0.9851627978285543</v>
       </c>
       <c r="D5">
-        <v>1.005562139779327</v>
+        <v>1.005583043208485</v>
       </c>
       <c r="E5">
-        <v>0.9924774303039753</v>
+        <v>0.9925034231695035</v>
       </c>
       <c r="F5">
-        <v>0.9660003582097552</v>
+        <v>0.9660276897913477</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03835340971847</v>
+        <v>1.038364036786018</v>
       </c>
       <c r="J5">
-        <v>1.004462414442478</v>
+        <v>1.004487866524517</v>
       </c>
       <c r="K5">
-        <v>1.015370967284829</v>
+        <v>1.015391628119894</v>
       </c>
       <c r="L5">
-        <v>1.002440598714578</v>
+        <v>1.002466279977284</v>
       </c>
       <c r="M5">
-        <v>0.9762918129595134</v>
+        <v>0.9763187940647989</v>
+      </c>
+      <c r="N5">
+        <v>1.0038706690449</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9855716296605194</v>
+        <v>0.9855973779869743</v>
       </c>
       <c r="D6">
-        <v>1.005883530949439</v>
+        <v>1.005904140177197</v>
       </c>
       <c r="E6">
-        <v>0.9928884243690043</v>
+        <v>0.9929140400040297</v>
       </c>
       <c r="F6">
-        <v>0.9665675303228158</v>
+        <v>0.9665944568264876</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038492435586303</v>
+        <v>1.038502913696806</v>
       </c>
       <c r="J6">
-        <v>1.004808031687218</v>
+        <v>1.004833116863094</v>
       </c>
       <c r="K6">
-        <v>1.015651219980821</v>
+        <v>1.015671591246579</v>
       </c>
       <c r="L6">
-        <v>1.002808597628841</v>
+        <v>1.002833907823969</v>
       </c>
       <c r="M6">
-        <v>0.9768122329109946</v>
+        <v>0.9768388161399401</v>
+      </c>
+      <c r="N6">
+        <v>1.004115191428802</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9825593956636923</v>
+        <v>0.9825877940097819</v>
       </c>
       <c r="D7">
-        <v>1.003657877416572</v>
+        <v>1.003680533721371</v>
       </c>
       <c r="E7">
-        <v>0.9900426314811075</v>
+        <v>0.9900708719744692</v>
       </c>
       <c r="F7">
-        <v>0.9626387638577681</v>
+        <v>0.9626685144682735</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03752796655564</v>
+        <v>1.037539480806013</v>
       </c>
       <c r="J7">
-        <v>1.002413747627369</v>
+        <v>1.002441384353434</v>
       </c>
       <c r="K7">
-        <v>1.013709367952082</v>
+        <v>1.013731753380385</v>
       </c>
       <c r="L7">
-        <v>1.000259695162667</v>
+        <v>1.000287586360867</v>
       </c>
       <c r="M7">
-        <v>0.9732068883890908</v>
+        <v>0.9732362442794382</v>
+      </c>
+      <c r="N7">
+        <v>1.002420868320505</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9693973733097073</v>
+        <v>0.9694377453245655</v>
       </c>
       <c r="D8">
-        <v>0.9939363867819017</v>
+        <v>0.9939682681650917</v>
       </c>
       <c r="E8">
-        <v>0.9776204908279733</v>
+        <v>0.9776605632350066</v>
       </c>
       <c r="F8">
-        <v>0.9454419521525496</v>
+        <v>0.9454845961492815</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033271512473253</v>
+        <v>1.033287687423424</v>
       </c>
       <c r="J8">
-        <v>0.9919321330241446</v>
+        <v>0.9919712293328588</v>
       </c>
       <c r="K8">
-        <v>1.005199124893701</v>
+        <v>1.005230567776435</v>
       </c>
       <c r="L8">
-        <v>0.9891123897797607</v>
+        <v>0.989151887498027</v>
       </c>
       <c r="M8">
-        <v>0.9574154308347843</v>
+        <v>0.9574574088979914</v>
+      </c>
+      <c r="N8">
+        <v>0.9949941641933914</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9435897510589615</v>
+        <v>0.9436558113407334</v>
       </c>
       <c r="D9">
-        <v>0.9749078252329377</v>
+        <v>0.9749593486898274</v>
       </c>
       <c r="E9">
-        <v>0.9533223408020787</v>
+        <v>0.9533876402793786</v>
       </c>
       <c r="F9">
-        <v>0.9115256128082634</v>
+        <v>0.9115967025246704</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.024765911517456</v>
+        <v>1.024791969458535</v>
       </c>
       <c r="J9">
-        <v>0.9713047960677548</v>
+        <v>0.9713681085325305</v>
       </c>
       <c r="K9">
-        <v>0.9884215616489048</v>
+        <v>0.9884721926343457</v>
       </c>
       <c r="L9">
-        <v>0.9672210274477424</v>
+        <v>0.9672851281506494</v>
       </c>
       <c r="M9">
-        <v>0.9262381489522609</v>
+        <v>0.9263077707747956</v>
+      </c>
+      <c r="N9">
+        <v>0.9803462154618443</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9240465792954863</v>
+        <v>0.924134573095429</v>
       </c>
       <c r="D10">
-        <v>0.9605442303930282</v>
+        <v>0.9606123504221027</v>
       </c>
       <c r="E10">
-        <v>0.9349736127873026</v>
+        <v>0.9350602846318132</v>
       </c>
       <c r="F10">
-        <v>0.8855975426207269</v>
+        <v>0.8856938342215839</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.018223006610905</v>
+        <v>1.018257379887518</v>
       </c>
       <c r="J10">
-        <v>0.9556351844769185</v>
+        <v>0.9557188019736504</v>
       </c>
       <c r="K10">
-        <v>0.9756643860205627</v>
+        <v>0.9757311396705247</v>
       </c>
       <c r="L10">
-        <v>0.9506253390854327</v>
+        <v>0.9507101440156892</v>
       </c>
       <c r="M10">
-        <v>0.9023930408673327</v>
+        <v>0.9024869344666228</v>
+      </c>
+      <c r="N10">
+        <v>0.9692021768317318</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9148483015373291</v>
+        <v>0.9149475509865354</v>
       </c>
       <c r="D11">
-        <v>0.9538015900638764</v>
+        <v>0.9538781632270549</v>
       </c>
       <c r="E11">
-        <v>0.9263528723549375</v>
+        <v>0.926450454415034</v>
       </c>
       <c r="F11">
-        <v>0.8733000338712</v>
+        <v>0.8734096049232564</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.015121641959148</v>
+        <v>1.01516024014239</v>
       </c>
       <c r="J11">
-        <v>0.9482489664648076</v>
+        <v>0.9483428822237169</v>
       </c>
       <c r="K11">
-        <v>0.9696506970379438</v>
+        <v>0.9697256348929717</v>
       </c>
       <c r="L11">
-        <v>0.9428114793330753</v>
+        <v>0.9429068090330339</v>
       </c>
       <c r="M11">
-        <v>0.8910848146013763</v>
+        <v>0.8911914205325874</v>
+      </c>
+      <c r="N11">
+        <v>0.963947029786704</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9112999261009644</v>
+        <v>0.9114037018548707</v>
       </c>
       <c r="D12">
-        <v>0.9512039274074678</v>
+        <v>0.9512838878004342</v>
       </c>
       <c r="E12">
-        <v>0.9230299283339439</v>
+        <v>0.923131887216459</v>
       </c>
       <c r="F12">
-        <v>0.8685376189901863</v>
+        <v>0.8686525984470486</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.013922223706165</v>
+        <v>1.013962513087564</v>
       </c>
       <c r="J12">
-        <v>0.9453980084048395</v>
+        <v>0.9454960436654872</v>
       </c>
       <c r="K12">
-        <v>0.967329750873127</v>
+        <v>0.9674079634671979</v>
       </c>
       <c r="L12">
-        <v>0.9397968806310308</v>
+        <v>0.9398964247018796</v>
       </c>
       <c r="M12">
-        <v>0.8867062037298614</v>
+        <v>0.8868179726517244</v>
+      </c>
+      <c r="N12">
+        <v>0.9619185156946596</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9120674355054472</v>
+        <v>0.9121702230311737</v>
       </c>
       <c r="D13">
-        <v>0.9517656315541083</v>
+        <v>0.9518448530000986</v>
       </c>
       <c r="E13">
-        <v>0.9237485524982106</v>
+        <v>0.923849556297382</v>
       </c>
       <c r="F13">
-        <v>0.869568639271164</v>
+        <v>0.8696824345365851</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.014181787502529</v>
+        <v>1.014221708019517</v>
       </c>
       <c r="J13">
-        <v>0.946014739028614</v>
+        <v>0.9461118759168842</v>
       </c>
       <c r="K13">
-        <v>0.9678318111405506</v>
+        <v>0.9679093095499822</v>
       </c>
       <c r="L13">
-        <v>0.9404489449992268</v>
+        <v>0.9405475698064848</v>
       </c>
       <c r="M13">
-        <v>0.8876540933979536</v>
+        <v>0.8877647325617967</v>
+      </c>
+      <c r="N13">
+        <v>0.962357333084326</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9145578240762962</v>
+        <v>0.914657440029873</v>
       </c>
       <c r="D14">
-        <v>0.953588866365312</v>
+        <v>0.95366571405599</v>
       </c>
       <c r="E14">
-        <v>0.9260807939170707</v>
+        <v>0.9261787306001831</v>
       </c>
       <c r="F14">
-        <v>0.8729105743804721</v>
+        <v>0.8730205818940385</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.015023514195775</v>
+        <v>1.015062249482964</v>
       </c>
       <c r="J14">
-        <v>0.9480156132559351</v>
+        <v>0.948109863035044</v>
       </c>
       <c r="K14">
-        <v>0.9694607190423854</v>
+        <v>0.9695359224054373</v>
       </c>
       <c r="L14">
-        <v>0.9425647027732382</v>
+        <v>0.9426603740967282</v>
       </c>
       <c r="M14">
-        <v>0.8907267245421172</v>
+        <v>0.8908337474344816</v>
+      </c>
+      <c r="N14">
+        <v>0.9637809951655502</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9160740393936025</v>
+        <v>0.9161717500254365</v>
       </c>
       <c r="D15">
-        <v>0.9546993700512908</v>
+        <v>0.9547747900794857</v>
       </c>
       <c r="E15">
-        <v>0.9275010796657864</v>
+        <v>0.9275971723628357</v>
       </c>
       <c r="F15">
-        <v>0.874942676153749</v>
+        <v>0.8750504174766603</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.015535595062677</v>
+        <v>1.015573617278958</v>
       </c>
       <c r="J15">
-        <v>0.9492335904305117</v>
+        <v>0.9493261028752837</v>
       </c>
       <c r="K15">
-        <v>0.9704523126042084</v>
+        <v>0.9705261350187596</v>
       </c>
       <c r="L15">
-        <v>0.9438528004508481</v>
+        <v>0.9439466950661768</v>
       </c>
       <c r="M15">
-        <v>0.8925951794625</v>
+        <v>0.8927000368261537</v>
+      </c>
+      <c r="N15">
+        <v>0.9646476026154285</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9246398634903823</v>
+        <v>0.92472715354821</v>
       </c>
       <c r="D16">
-        <v>0.9609795466599607</v>
+        <v>0.9610471367369485</v>
       </c>
       <c r="E16">
-        <v>0.9355299842383823</v>
+        <v>0.9356159726697993</v>
       </c>
       <c r="F16">
-        <v>0.8863884846631179</v>
+        <v>0.8864839539337257</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.018422619216031</v>
+        <v>1.018456727402661</v>
       </c>
       <c r="J16">
-        <v>0.9561113708356006</v>
+        <v>0.9561943418040129</v>
       </c>
       <c r="K16">
-        <v>0.9760521016955566</v>
+        <v>0.9761183416672277</v>
       </c>
       <c r="L16">
-        <v>0.9511292825555618</v>
+        <v>0.9512134272592833</v>
       </c>
       <c r="M16">
-        <v>0.9031204188315093</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9032135235221294</v>
+      </c>
+      <c r="N16">
+        <v>0.9695409461616231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9298028118443915</v>
+        <v>0.9298840839891653</v>
       </c>
       <c r="D17">
-        <v>0.9647698414066933</v>
+        <v>0.964832892785907</v>
       </c>
       <c r="E17">
-        <v>0.9403734325761283</v>
+        <v>0.9404535707235292</v>
       </c>
       <c r="F17">
-        <v>0.8932607693972368</v>
+        <v>0.8933492443285175</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.020157325701303</v>
+        <v>1.020189162452966</v>
       </c>
       <c r="J17">
-        <v>0.96025408000654</v>
+        <v>0.9603315092033904</v>
       </c>
       <c r="K17">
-        <v>0.979425128553494</v>
+        <v>0.9794869662355491</v>
       </c>
       <c r="L17">
-        <v>0.9555144593817758</v>
+        <v>0.955592947502384</v>
       </c>
       <c r="M17">
-        <v>0.909440600426229</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9095269868359867</v>
+      </c>
+      <c r="N17">
+        <v>0.9724879401555836</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.932744959994019</v>
+        <v>0.9328228848214098</v>
       </c>
       <c r="D18">
-        <v>0.9669313496837585</v>
+        <v>0.966991871159534</v>
       </c>
       <c r="E18">
-        <v>0.943134895025852</v>
+        <v>0.9432117742373114</v>
       </c>
       <c r="F18">
-        <v>0.8971686987198708</v>
+        <v>0.8972533121540784</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02114384048584</v>
+        <v>1.021174410233784</v>
       </c>
       <c r="J18">
-        <v>0.9626138169854838</v>
+        <v>0.9626881533762884</v>
       </c>
       <c r="K18">
-        <v>0.9813463959277288</v>
+        <v>0.9814057773758456</v>
       </c>
       <c r="L18">
-        <v>0.9580131161308376</v>
+        <v>0.9580884494295175</v>
       </c>
       <c r="M18">
-        <v>0.9130346623468097</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9131173332862882</v>
+      </c>
+      <c r="N18">
+        <v>0.9741663702494275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9337369478588262</v>
+        <v>0.9338137569850171</v>
       </c>
       <c r="D19">
-        <v>0.9676603823752316</v>
+        <v>0.9677200597520595</v>
       </c>
       <c r="E19">
-        <v>0.9440661883896282</v>
+        <v>0.9441419805797746</v>
       </c>
       <c r="F19">
-        <v>0.898485010095839</v>
+        <v>0.8985683409996095</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.021476108443517</v>
+        <v>1.021506255311256</v>
       </c>
       <c r="J19">
-        <v>0.9634092618746327</v>
+        <v>0.9634825657271818</v>
       </c>
       <c r="K19">
-        <v>0.9819940213558693</v>
+        <v>0.9820525828981109</v>
       </c>
       <c r="L19">
-        <v>0.9588555243884738</v>
+        <v>0.9589298047784344</v>
       </c>
       <c r="M19">
-        <v>0.9142452565574216</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9143266924480615</v>
+      </c>
+      <c r="N19">
+        <v>0.9747321117249557</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9292561793712835</v>
+        <v>0.9293380798531814</v>
       </c>
       <c r="D20">
-        <v>0.9643683707609765</v>
+        <v>0.9644318966101376</v>
       </c>
       <c r="E20">
-        <v>0.9398604809904645</v>
+        <v>0.939941230495594</v>
       </c>
       <c r="F20">
-        <v>0.8925340508873881</v>
+        <v>0.8926232529690917</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.019973871192009</v>
+        <v>1.020005945491474</v>
       </c>
       <c r="J20">
-        <v>0.9598155724110904</v>
+        <v>0.9598935813393833</v>
       </c>
       <c r="K20">
-        <v>0.9790680955558505</v>
+        <v>0.97913039370043</v>
       </c>
       <c r="L20">
-        <v>0.9550502016971071</v>
+        <v>0.9551292813392477</v>
       </c>
       <c r="M20">
-        <v>0.9087722528710166</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.908859338421475</v>
+      </c>
+      <c r="N20">
+        <v>0.9721760205077306</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9138283048829311</v>
+        <v>0.9139288444228955</v>
       </c>
       <c r="D21">
-        <v>0.9530546791546435</v>
+        <v>0.9531322184503953</v>
       </c>
       <c r="E21">
-        <v>0.9253975263614133</v>
+        <v>0.9254963565154379</v>
       </c>
       <c r="F21">
-        <v>0.8719321543077336</v>
+        <v>0.8720432628439519</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.014777024049343</v>
+        <v>1.01481610470802</v>
       </c>
       <c r="J21">
-        <v>0.947429533056519</v>
+        <v>0.9475246242041726</v>
       </c>
       <c r="K21">
-        <v>0.9689835831294359</v>
+        <v>0.9690594552981705</v>
       </c>
       <c r="L21">
-        <v>0.941944932132972</v>
+        <v>0.9420414640470907</v>
       </c>
       <c r="M21">
-        <v>0.8898271252895394</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8899351997738747</v>
+      </c>
+      <c r="N21">
+        <v>0.9633639885182788</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9033503268307805</v>
+        <v>0.9034646539734951</v>
       </c>
       <c r="D22">
-        <v>0.9453916029656753</v>
+        <v>0.9454794329170507</v>
       </c>
       <c r="E22">
-        <v>0.9155907215606859</v>
+        <v>0.9157028605790358</v>
       </c>
       <c r="F22">
-        <v>0.8578274871583191</v>
+        <v>0.8579552288979699</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.011229832364669</v>
+        <v>1.011274047324728</v>
       </c>
       <c r="J22">
-        <v>0.9390079148684577</v>
+        <v>0.9391155069763487</v>
       </c>
       <c r="K22">
-        <v>0.962128451738492</v>
+        <v>0.9622142628122815</v>
       </c>
       <c r="L22">
-        <v>0.9330427780334101</v>
+        <v>0.9331521079901031</v>
       </c>
       <c r="M22">
-        <v>0.8768611949337312</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8769851151974857</v>
+      </c>
+      <c r="N22">
+        <v>0.9573719169322382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9089875231674459</v>
+        <v>0.9090943078726974</v>
       </c>
       <c r="D23">
-        <v>0.9495121558782418</v>
+        <v>0.9495943642030087</v>
       </c>
       <c r="E23">
-        <v>0.9208652265421958</v>
+        <v>0.920970091724682</v>
       </c>
       <c r="F23">
-        <v>0.8654281630383766</v>
+        <v>0.8655467597762253</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.013139773394617</v>
+        <v>1.01318118461425</v>
       </c>
       <c r="J23">
-        <v>0.9435396487576013</v>
+        <v>0.9436404158552173</v>
       </c>
       <c r="K23">
-        <v>0.9658169822592207</v>
+        <v>0.9658973667108942</v>
       </c>
       <c r="L23">
-        <v>0.9378322687355011</v>
+        <v>0.9379346088549949</v>
       </c>
       <c r="M23">
-        <v>0.8838476099164839</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8839628274454632</v>
+      </c>
+      <c r="N23">
+        <v>0.9605962550491762</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9295033917237299</v>
+        <v>0.9295850077896463</v>
       </c>
       <c r="D24">
-        <v>0.9645499293848995</v>
+        <v>0.9646132404825956</v>
       </c>
       <c r="E24">
-        <v>0.9400924570008388</v>
+        <v>0.9401729297908715</v>
       </c>
       <c r="F24">
-        <v>0.8928627320275728</v>
+        <v>0.8929516048754318</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.020056844088457</v>
+        <v>1.020088810873386</v>
       </c>
       <c r="J24">
-        <v>0.9600138889050608</v>
+        <v>0.9600916354509961</v>
       </c>
       <c r="K24">
-        <v>0.9792295650702761</v>
+        <v>0.979291654810747</v>
       </c>
       <c r="L24">
-        <v>0.9552601612396453</v>
+        <v>0.955338973156879</v>
       </c>
       <c r="M24">
-        <v>0.9090745336872776</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9091613027059203</v>
+      </c>
+      <c r="N24">
+        <v>0.9723170878681657</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9506235398654943</v>
+        <v>0.9506822696015884</v>
       </c>
       <c r="D25">
-        <v>0.9800882029556842</v>
+        <v>0.9801341431827136</v>
       </c>
       <c r="E25">
-        <v>0.9599370658463935</v>
+        <v>0.959995188235532</v>
       </c>
       <c r="F25">
-        <v>0.9208009384588729</v>
+        <v>0.9208637969308989</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027101604906434</v>
+        <v>1.027124858664445</v>
       </c>
       <c r="J25">
-        <v>0.9769350680859122</v>
+        <v>0.9769915198346505</v>
       </c>
       <c r="K25">
-        <v>0.9930036941184374</v>
+        <v>0.9930488835011596</v>
       </c>
       <c r="L25">
-        <v>0.9731908666894356</v>
+        <v>0.9732479868729573</v>
       </c>
       <c r="M25">
-        <v>0.9347671806419965</v>
+        <v>0.9348288312468559</v>
+      </c>
+      <c r="N25">
+        <v>0.984347624450681</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_46/res_bus/vm_pu.xlsx
@@ -417,192 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
+      <c r="C2">
+        <v>1.053137895709935</v>
+      </c>
+      <c r="D2">
+        <v>1.058879978047211</v>
+      </c>
+      <c r="E2">
+        <v>1.069819668732265</v>
+      </c>
+      <c r="F2">
+        <v>1.074578335682961</v>
+      </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1.073804728915792</v>
+      </c>
+      <c r="J2">
+        <v>1.07383764125894</v>
+      </c>
+      <c r="K2">
+        <v>1.069575725900038</v>
+      </c>
+      <c r="L2">
+        <v>1.080385018429604</v>
+      </c>
+      <c r="M2">
+        <v>1.085087988198244</v>
+      </c>
+      <c r="N2">
+        <v>1.075362613880427</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>1.061665470151211</v>
+      </c>
+      <c r="D3">
+        <v>1.065790313346455</v>
+      </c>
+      <c r="E3">
+        <v>1.078034113990893</v>
+      </c>
+      <c r="F3">
+        <v>1.083026584769251</v>
+      </c>
       <c r="G3">
         <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.077924493476283</v>
+      </c>
+      <c r="J3">
+        <v>1.08060543661648</v>
+      </c>
+      <c r="K3">
+        <v>1.075645303385066</v>
+      </c>
+      <c r="L3">
+        <v>1.087757177782994</v>
+      </c>
+      <c r="M3">
+        <v>1.09269690180411</v>
+      </c>
+      <c r="N3">
+        <v>1.082140020283651</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>1.066987485844663</v>
+      </c>
+      <c r="D4">
+        <v>1.070099211071875</v>
+      </c>
+      <c r="E4">
+        <v>1.083165441565025</v>
+      </c>
+      <c r="F4">
+        <v>1.08830614921738</v>
+      </c>
       <c r="G4">
         <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.080479816080196</v>
+      </c>
+      <c r="J4">
+        <v>1.084820103215626</v>
+      </c>
+      <c r="K4">
+        <v>1.079419275443659</v>
+      </c>
+      <c r="L4">
+        <v>1.092353973133847</v>
+      </c>
+      <c r="M4">
+        <v>1.097443981857721</v>
+      </c>
+      <c r="N4">
+        <v>1.086360672192797</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>1.069180980807513</v>
+      </c>
+      <c r="D5">
+        <v>1.071874162103678</v>
+      </c>
+      <c r="E5">
+        <v>1.085281424011948</v>
+      </c>
+      <c r="F5">
+        <v>1.090483783478238</v>
+      </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.081529183433883</v>
+      </c>
+      <c r="J5">
+        <v>1.086554987213986</v>
+      </c>
+      <c r="K5">
+        <v>1.080971339502449</v>
+      </c>
+      <c r="L5">
+        <v>1.094247531956504</v>
+      </c>
+      <c r="M5">
+        <v>1.099400083008706</v>
+      </c>
+      <c r="N5">
+        <v>1.088098019925429</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>1.069546787223468</v>
+      </c>
+      <c r="D6">
+        <v>1.072170108773697</v>
+      </c>
+      <c r="E6">
+        <v>1.085634365812745</v>
+      </c>
+      <c r="F6">
+        <v>1.090847039498954</v>
+      </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.081703959440606</v>
+      </c>
+      <c r="J6">
+        <v>1.086844180620925</v>
+      </c>
+      <c r="K6">
+        <v>1.08122997450249</v>
+      </c>
+      <c r="L6">
+        <v>1.094563256470697</v>
+      </c>
+      <c r="M6">
+        <v>1.09972627290389</v>
+      </c>
+      <c r="N6">
+        <v>1.088387624020177</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>1.067016964087822</v>
+      </c>
+      <c r="D7">
+        <v>1.070123068509231</v>
+      </c>
+      <c r="E7">
+        <v>1.083193873909915</v>
+      </c>
+      <c r="F7">
+        <v>1.088335407898744</v>
+      </c>
       <c r="G7">
         <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.080493933646122</v>
+      </c>
+      <c r="J7">
+        <v>1.084843427020752</v>
+      </c>
+      <c r="K7">
+        <v>1.079440147041336</v>
+      </c>
+      <c r="L7">
+        <v>1.092379424700259</v>
+      </c>
+      <c r="M7">
+        <v>1.097470271547785</v>
+      </c>
+      <c r="N7">
+        <v>1.086384029120402</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>1.056062307306103</v>
+      </c>
+      <c r="D8">
+        <v>1.061250542679417</v>
+      </c>
+      <c r="E8">
+        <v>1.072635657841147</v>
+      </c>
+      <c r="F8">
+        <v>1.0774740114889</v>
+      </c>
       <c r="G8">
         <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.075220873972029</v>
+      </c>
+      <c r="J8">
+        <v>1.076160464584747</v>
+      </c>
+      <c r="K8">
+        <v>1.071660152208485</v>
+      </c>
+      <c r="L8">
+        <v>1.082914045457419</v>
+      </c>
+      <c r="M8">
+        <v>1.08769766799707</v>
+      </c>
+      <c r="N8">
+        <v>1.077688735881788</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>1.035104325539026</v>
+      </c>
+      <c r="D9">
+        <v>1.044248340851057</v>
+      </c>
+      <c r="E9">
+        <v>1.052478092521503</v>
+      </c>
+      <c r="F9">
+        <v>1.056755619868589</v>
+      </c>
       <c r="G9">
         <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.065004129192782</v>
+      </c>
+      <c r="J9">
+        <v>1.059475577551418</v>
+      </c>
+      <c r="K9">
+        <v>1.05666211265684</v>
+      </c>
+      <c r="L9">
+        <v>1.064773493535347</v>
+      </c>
+      <c r="M9">
+        <v>1.068990416304383</v>
+      </c>
+      <c r="N9">
+        <v>1.060980154395088</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>1.019768837522989</v>
+      </c>
+      <c r="D10">
+        <v>1.031794415971877</v>
+      </c>
+      <c r="E10">
+        <v>1.037762032454264</v>
+      </c>
+      <c r="F10">
+        <v>1.041642546034948</v>
+      </c>
       <c r="G10">
         <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.057442391925217</v>
+      </c>
+      <c r="J10">
+        <v>1.047219490785423</v>
+      </c>
+      <c r="K10">
+        <v>1.045612399141504</v>
+      </c>
+      <c r="L10">
+        <v>1.051481387157211</v>
+      </c>
+      <c r="M10">
+        <v>1.055298545255325</v>
+      </c>
+      <c r="N10">
+        <v>1.048706662580093</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>1.01273578888236</v>
+      </c>
+      <c r="D11">
+        <v>1.026081422359894</v>
+      </c>
+      <c r="E11">
+        <v>1.031022435382922</v>
+      </c>
+      <c r="F11">
+        <v>1.034724101287152</v>
+      </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.053954647838077</v>
+      </c>
+      <c r="J11">
+        <v>1.041588177031601</v>
+      </c>
+      <c r="K11">
+        <v>1.04052769080654</v>
+      </c>
+      <c r="L11">
+        <v>1.04538210478177</v>
+      </c>
+      <c r="M11">
+        <v>1.049019594022202</v>
+      </c>
+      <c r="N11">
+        <v>1.04306735171482</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>1.010057255363856</v>
+      </c>
+      <c r="D12">
+        <v>1.023905575247047</v>
+      </c>
+      <c r="E12">
+        <v>1.028457206471334</v>
+      </c>
+      <c r="F12">
+        <v>1.032091247944018</v>
+      </c>
       <c r="G12">
         <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.052623422915021</v>
+      </c>
+      <c r="J12">
+        <v>1.03944198989405</v>
+      </c>
+      <c r="K12">
+        <v>1.038588679132019</v>
+      </c>
+      <c r="L12">
+        <v>1.043058791084712</v>
+      </c>
+      <c r="M12">
+        <v>1.046628416562065</v>
+      </c>
+      <c r="N12">
+        <v>1.040918116745362</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>1.010634931708228</v>
+      </c>
+      <c r="D13">
+        <v>1.02437483738564</v>
+      </c>
+      <c r="E13">
+        <v>1.029010374550684</v>
+      </c>
+      <c r="F13">
+        <v>1.032658978355325</v>
+      </c>
       <c r="G13">
         <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.052910657234298</v>
+      </c>
+      <c r="J13">
+        <v>1.039904922118103</v>
+      </c>
+      <c r="K13">
+        <v>1.039006975073293</v>
+      </c>
+      <c r="L13">
+        <v>1.04355987404553</v>
+      </c>
+      <c r="M13">
+        <v>1.047144110033667</v>
+      </c>
+      <c r="N13">
+        <v>1.041381706386273</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>1.012515775654469</v>
+      </c>
+      <c r="D14">
+        <v>1.025902699607229</v>
+      </c>
+      <c r="E14">
+        <v>1.03081169684579</v>
+      </c>
+      <c r="F14">
+        <v>1.034507798181706</v>
+      </c>
       <c r="G14">
         <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.053845360457691</v>
+      </c>
+      <c r="J14">
+        <v>1.041411920377729</v>
+      </c>
+      <c r="K14">
+        <v>1.040368471635339</v>
+      </c>
+      <c r="L14">
+        <v>1.04519127667069</v>
+      </c>
+      <c r="M14">
+        <v>1.048823180153344</v>
+      </c>
+      <c r="N14">
+        <v>1.042890844756282</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>1.013665625554995</v>
+      </c>
+      <c r="D15">
+        <v>1.026836752850452</v>
+      </c>
+      <c r="E15">
+        <v>1.031913138079654</v>
+      </c>
+      <c r="F15">
+        <v>1.035638341262499</v>
+      </c>
       <c r="G15">
         <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.054416408555978</v>
+      </c>
+      <c r="J15">
+        <v>1.042333025868014</v>
+      </c>
+      <c r="K15">
+        <v>1.04120049404739</v>
+      </c>
+      <c r="L15">
+        <v>1.046188581316334</v>
+      </c>
+      <c r="M15">
+        <v>1.049849700409497</v>
+      </c>
+      <c r="N15">
+        <v>1.043813258322017</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>1.02022674171801</v>
+      </c>
+      <c r="D16">
+        <v>1.032166357669829</v>
+      </c>
+      <c r="E16">
+        <v>1.038201034504867</v>
+      </c>
+      <c r="F16">
+        <v>1.042093259214187</v>
+      </c>
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16">
+        <v>1.057669066910306</v>
+      </c>
+      <c r="J16">
+        <v>1.047585921198648</v>
+      </c>
+      <c r="K16">
+        <v>1.045943104567729</v>
+      </c>
+      <c r="L16">
+        <v>1.051878435084352</v>
+      </c>
+      <c r="M16">
+        <v>1.055707367420712</v>
+      </c>
+      <c r="N16">
+        <v>1.049073613366535</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>1.024232548274179</v>
+      </c>
+      <c r="D17">
+        <v>1.035420005567949</v>
+      </c>
+      <c r="E17">
+        <v>1.042042546650456</v>
+      </c>
+      <c r="F17">
+        <v>1.046037583951902</v>
+      </c>
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17">
+        <v>1.059649834031591</v>
+      </c>
+      <c r="J17">
+        <v>1.050790332627597</v>
+      </c>
+      <c r="K17">
+        <v>1.048834243826934</v>
+      </c>
+      <c r="L17">
+        <v>1.055351497377565</v>
+      </c>
+      <c r="M17">
+        <v>1.059283844484196</v>
+      </c>
+      <c r="N17">
+        <v>1.052282575427264</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>1.026531721902684</v>
+      </c>
+      <c r="D18">
+        <v>1.037287321702616</v>
+      </c>
+      <c r="E18">
+        <v>1.044248285765292</v>
+      </c>
+      <c r="F18">
+        <v>1.048302633882522</v>
+      </c>
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18">
+        <v>1.060784862757564</v>
+      </c>
+      <c r="J18">
+        <v>1.052628551749288</v>
+      </c>
+      <c r="K18">
+        <v>1.050492037164857</v>
+      </c>
+      <c r="L18">
+        <v>1.057344577312871</v>
+      </c>
+      <c r="M18">
+        <v>1.061336621390032</v>
+      </c>
+      <c r="N18">
+        <v>1.054123405030955</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>1.027309543951401</v>
+      </c>
+      <c r="D19">
+        <v>1.037919014599943</v>
+      </c>
+      <c r="E19">
+        <v>1.044994641345911</v>
+      </c>
+      <c r="F19">
+        <v>1.049069105451024</v>
+      </c>
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19">
+        <v>1.06116853277995</v>
+      </c>
+      <c r="J19">
+        <v>1.053250261336916</v>
+      </c>
+      <c r="K19">
+        <v>1.051052602625155</v>
+      </c>
+      <c r="L19">
+        <v>1.058018789428148</v>
+      </c>
+      <c r="M19">
+        <v>1.062031086810284</v>
+      </c>
+      <c r="N19">
+        <v>1.054745997517508</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>1.023806673753731</v>
+      </c>
+      <c r="D20">
+        <v>1.035074110633984</v>
+      </c>
+      <c r="E20">
+        <v>1.041634048172273</v>
+      </c>
+      <c r="F20">
+        <v>1.045618123720808</v>
+      </c>
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20">
+        <v>1.059439442598107</v>
+      </c>
+      <c r="J20">
+        <v>1.05044975994841</v>
+      </c>
+      <c r="K20">
+        <v>1.04852704098804</v>
+      </c>
+      <c r="L20">
+        <v>1.054982293813455</v>
+      </c>
+      <c r="M20">
+        <v>1.058903610881409</v>
+      </c>
+      <c r="N20">
+        <v>1.051941519095808</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>1.011963803665369</v>
+      </c>
+      <c r="D21">
+        <v>1.025454317393937</v>
+      </c>
+      <c r="E21">
+        <v>1.030283018596583</v>
+      </c>
+      <c r="F21">
+        <v>1.033965167349327</v>
+      </c>
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21">
+        <v>1.053571132249534</v>
+      </c>
+      <c r="J21">
+        <v>1.040969701581721</v>
+      </c>
+      <c r="K21">
+        <v>1.039968980659784</v>
+      </c>
+      <c r="L21">
+        <v>1.044712518544227</v>
+      </c>
+      <c r="M21">
+        <v>1.048330417488377</v>
+      </c>
+      <c r="N21">
+        <v>1.04244799795886</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>1.004130498247427</v>
+      </c>
+      <c r="D22">
+        <v>1.019091209174027</v>
+      </c>
+      <c r="E22">
+        <v>1.022784182454718</v>
+      </c>
+      <c r="F22">
+        <v>1.026269503604548</v>
+      </c>
       <c r="G22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22">
+        <v>1.049672515119561</v>
+      </c>
+      <c r="J22">
+        <v>1.034690463933857</v>
+      </c>
+      <c r="K22">
+        <v>1.034293721113793</v>
+      </c>
+      <c r="L22">
+        <v>1.037917401040952</v>
+      </c>
+      <c r="M22">
+        <v>1.041337921502582</v>
+      </c>
+      <c r="N22">
+        <v>1.036159843073298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>1.008322518947867</v>
+      </c>
+      <c r="D23">
+        <v>1.022496407836332</v>
+      </c>
+      <c r="E23">
+        <v>1.026796305222777</v>
+      </c>
+      <c r="F23">
+        <v>1.030386688825295</v>
+      </c>
       <c r="G23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23">
+        <v>1.051760448328489</v>
+      </c>
+      <c r="J23">
+        <v>1.038051611161668</v>
+      </c>
+      <c r="K23">
+        <v>1.037332194820341</v>
+      </c>
+      <c r="L23">
+        <v>1.041554010456228</v>
+      </c>
+      <c r="M23">
+        <v>1.045079844768217</v>
+      </c>
+      <c r="N23">
+        <v>1.039525763515702</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>1.023999223000997</v>
+      </c>
+      <c r="D24">
+        <v>1.035230499446828</v>
+      </c>
+      <c r="E24">
+        <v>1.041818738568379</v>
+      </c>
+      <c r="F24">
+        <v>1.045807769283727</v>
+      </c>
       <c r="G24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="I24">
+        <v>1.059534571954295</v>
+      </c>
+      <c r="J24">
+        <v>1.050603745026288</v>
+      </c>
+      <c r="K24">
+        <v>1.048665940598692</v>
+      </c>
+      <c r="L24">
+        <v>1.055149221609116</v>
+      </c>
+      <c r="M24">
+        <v>1.059075524592125</v>
+      </c>
+      <c r="N24">
+        <v>1.05209572285016</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>1.040742182298492</v>
+      </c>
+      <c r="D25">
+        <v>1.048824710092568</v>
+      </c>
+      <c r="E25">
+        <v>1.05789533384569</v>
+      </c>
+      <c r="F25">
+        <v>1.062321493439379</v>
+      </c>
       <c r="G25">
         <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.067767142793687</v>
+      </c>
+      <c r="J25">
+        <v>1.063972118770763</v>
+      </c>
+      <c r="K25">
+        <v>1.060709579368792</v>
+      </c>
+      <c r="L25">
+        <v>1.069656782521845</v>
+      </c>
+      <c r="M25">
+        <v>1.074023677819673</v>
+      </c>
+      <c r="N25">
+        <v>1.065483081218725</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_46/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.053137895709935</v>
+        <v>1.086111515195323</v>
       </c>
       <c r="D2">
-        <v>1.058879978047211</v>
+        <v>1.079326327007237</v>
       </c>
       <c r="E2">
-        <v>1.069819668732265</v>
+        <v>1.099526299028462</v>
       </c>
       <c r="F2">
-        <v>1.074578335682961</v>
+        <v>1.105858638932316</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.073804728915792</v>
+        <v>1.067993881393705</v>
       </c>
       <c r="J2">
-        <v>1.07383764125894</v>
+        <v>1.090963080620817</v>
       </c>
       <c r="K2">
-        <v>1.069575725900038</v>
+        <v>1.082002670846362</v>
       </c>
       <c r="L2">
-        <v>1.080385018429604</v>
+        <v>1.102150772160547</v>
       </c>
       <c r="M2">
-        <v>1.085087988198244</v>
+        <v>1.108467271695202</v>
       </c>
       <c r="N2">
-        <v>1.075362613880427</v>
+        <v>1.092512373330512</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.061665470151211</v>
+        <v>1.08767390701954</v>
       </c>
       <c r="D3">
-        <v>1.065790313346455</v>
+        <v>1.080566316421894</v>
       </c>
       <c r="E3">
-        <v>1.078034113990893</v>
+        <v>1.101077789504023</v>
       </c>
       <c r="F3">
-        <v>1.083026584769251</v>
+        <v>1.107469600343693</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.077924493476283</v>
+        <v>1.068629136575458</v>
       </c>
       <c r="J3">
-        <v>1.08060543661648</v>
+        <v>1.092186123496859</v>
       </c>
       <c r="K3">
-        <v>1.075645303385066</v>
+        <v>1.083059683237019</v>
       </c>
       <c r="L3">
-        <v>1.087757177782994</v>
+        <v>1.103522324142208</v>
       </c>
       <c r="M3">
-        <v>1.09269690180411</v>
+        <v>1.109899314204997</v>
       </c>
       <c r="N3">
-        <v>1.082140020283651</v>
+        <v>1.093737153067724</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.066987485844663</v>
+        <v>1.088681789224686</v>
       </c>
       <c r="D4">
-        <v>1.070099211071875</v>
+        <v>1.081365366605998</v>
       </c>
       <c r="E4">
-        <v>1.083165441565025</v>
+        <v>1.1020789707177</v>
       </c>
       <c r="F4">
-        <v>1.08830614921738</v>
+        <v>1.108509433274302</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.080479816080196</v>
+        <v>1.06903707286139</v>
       </c>
       <c r="J4">
-        <v>1.084820103215626</v>
+        <v>1.092973980237557</v>
       </c>
       <c r="K4">
-        <v>1.079419275443659</v>
+        <v>1.08373977272769</v>
       </c>
       <c r="L4">
-        <v>1.092353973133847</v>
+        <v>1.10440656443865</v>
       </c>
       <c r="M4">
-        <v>1.097443981857721</v>
+        <v>1.110822874699404</v>
       </c>
       <c r="N4">
-        <v>1.086360672192797</v>
+        <v>1.094526128655362</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.069180980807513</v>
+        <v>1.089104775717904</v>
       </c>
       <c r="D5">
-        <v>1.071874162103678</v>
+        <v>1.081700505934934</v>
       </c>
       <c r="E5">
-        <v>1.085281424011948</v>
+        <v>1.10249922390309</v>
       </c>
       <c r="F5">
-        <v>1.090483783478238</v>
+        <v>1.108945976612105</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.081529183433883</v>
+        <v>1.069207829364179</v>
       </c>
       <c r="J5">
-        <v>1.086554987213986</v>
+        <v>1.093304359584229</v>
       </c>
       <c r="K5">
-        <v>1.080971339502449</v>
+        <v>1.084024765864963</v>
       </c>
       <c r="L5">
-        <v>1.094247531956504</v>
+        <v>1.104777533147244</v>
       </c>
       <c r="M5">
-        <v>1.099400083008706</v>
+        <v>1.111210416650344</v>
       </c>
       <c r="N5">
-        <v>1.088098019925429</v>
+        <v>1.094856977178601</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.069546787223468</v>
+        <v>1.089175754730363</v>
       </c>
       <c r="D6">
-        <v>1.072170108773697</v>
+        <v>1.081756731773883</v>
       </c>
       <c r="E6">
-        <v>1.085634365812745</v>
+        <v>1.102569748874368</v>
       </c>
       <c r="F6">
-        <v>1.090847039498954</v>
+        <v>1.10901923918176</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.081703959440606</v>
+        <v>1.069236456920753</v>
       </c>
       <c r="J6">
-        <v>1.086844180620925</v>
+        <v>1.093359783028166</v>
       </c>
       <c r="K6">
-        <v>1.08122997450249</v>
+        <v>1.084072564000112</v>
       </c>
       <c r="L6">
-        <v>1.094563256470697</v>
+        <v>1.104839775832349</v>
       </c>
       <c r="M6">
-        <v>1.09972627290389</v>
+        <v>1.111275444585799</v>
       </c>
       <c r="N6">
-        <v>1.088387624020177</v>
+        <v>1.094912479330186</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.067016964087822</v>
+        <v>1.088687444031045</v>
       </c>
       <c r="D7">
-        <v>1.070123068509231</v>
+        <v>1.081369847810485</v>
       </c>
       <c r="E7">
-        <v>1.083193873909915</v>
+        <v>1.102084588673171</v>
       </c>
       <c r="F7">
-        <v>1.088335407898744</v>
+        <v>1.10851526873824</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.080493933646122</v>
+        <v>1.069039357417028</v>
       </c>
       <c r="J7">
-        <v>1.084843427020752</v>
+        <v>1.092978398051729</v>
       </c>
       <c r="K7">
-        <v>1.079440147041336</v>
+        <v>1.083743584407922</v>
       </c>
       <c r="L7">
-        <v>1.092379424700259</v>
+        <v>1.104411524334948</v>
       </c>
       <c r="M7">
-        <v>1.097470271547785</v>
+        <v>1.110828055878775</v>
       </c>
       <c r="N7">
-        <v>1.086384029120402</v>
+        <v>1.094530552743337</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.056062307306103</v>
+        <v>1.086640180151288</v>
       </c>
       <c r="D8">
-        <v>1.061250542679417</v>
+        <v>1.079746077827358</v>
       </c>
       <c r="E8">
-        <v>1.072635657841147</v>
+        <v>1.100051206328459</v>
       </c>
       <c r="F8">
-        <v>1.0774740114889</v>
+        <v>1.10640360966252</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.075220873972029</v>
+        <v>1.068209217816452</v>
       </c>
       <c r="J8">
-        <v>1.076160464584747</v>
+        <v>1.091377151648578</v>
       </c>
       <c r="K8">
-        <v>1.071660152208485</v>
+        <v>1.082360699858036</v>
       </c>
       <c r="L8">
-        <v>1.082914045457419</v>
+        <v>1.102614973284847</v>
       </c>
       <c r="M8">
-        <v>1.08769766799707</v>
+        <v>1.108951878998046</v>
       </c>
       <c r="N8">
-        <v>1.077688735881788</v>
+        <v>1.092927032386627</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.035104325539026</v>
+        <v>1.08300841135702</v>
       </c>
       <c r="D9">
-        <v>1.044248340851057</v>
+        <v>1.076859014312974</v>
       </c>
       <c r="E9">
-        <v>1.052478092521503</v>
+        <v>1.09644663283486</v>
       </c>
       <c r="F9">
-        <v>1.056755619868589</v>
+        <v>1.102662393154863</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.065004129192782</v>
+        <v>1.066722261739977</v>
       </c>
       <c r="J9">
-        <v>1.059475577551418</v>
+        <v>1.088528018635396</v>
       </c>
       <c r="K9">
-        <v>1.05666211265684</v>
+        <v>1.079893822889963</v>
       </c>
       <c r="L9">
-        <v>1.064773493535347</v>
+        <v>1.099423864036657</v>
       </c>
       <c r="M9">
-        <v>1.068990416304383</v>
+        <v>1.105621817744058</v>
       </c>
       <c r="N9">
-        <v>1.060980154395088</v>
+        <v>1.090073853277768</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.019768837522989</v>
+        <v>1.080570149147531</v>
       </c>
       <c r="D10">
-        <v>1.031794415971877</v>
+        <v>1.074916337506234</v>
       </c>
       <c r="E10">
-        <v>1.037762032454264</v>
+        <v>1.094028383052663</v>
       </c>
       <c r="F10">
-        <v>1.041642546034948</v>
+        <v>1.100153899285964</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.057442391925217</v>
+        <v>1.065714334689234</v>
       </c>
       <c r="J10">
-        <v>1.047219490785423</v>
+        <v>1.086609427482301</v>
       </c>
       <c r="K10">
-        <v>1.045612399141504</v>
+        <v>1.07822842149857</v>
       </c>
       <c r="L10">
-        <v>1.051481387157211</v>
+        <v>1.097278706459719</v>
       </c>
       <c r="M10">
-        <v>1.055298545255325</v>
+        <v>1.103384924575015</v>
       </c>
       <c r="N10">
-        <v>1.048706662580093</v>
+        <v>1.08815253750517</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.01273578888236</v>
+        <v>1.079510125078636</v>
       </c>
       <c r="D11">
-        <v>1.026081422359894</v>
+        <v>1.074070731846755</v>
       </c>
       <c r="E11">
-        <v>1.031022435382922</v>
+        <v>1.092977480771924</v>
       </c>
       <c r="F11">
-        <v>1.034724101287152</v>
+        <v>1.099064118556567</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.053954647838077</v>
+        <v>1.065273860851421</v>
       </c>
       <c r="J11">
-        <v>1.041588177031601</v>
+        <v>1.085773962095441</v>
       </c>
       <c r="K11">
-        <v>1.04052769080654</v>
+        <v>1.077502210554354</v>
       </c>
       <c r="L11">
-        <v>1.04538210478177</v>
+        <v>1.09634546152598</v>
       </c>
       <c r="M11">
-        <v>1.049019594022202</v>
+        <v>1.102412167112976</v>
       </c>
       <c r="N11">
-        <v>1.04306735171482</v>
+        <v>1.087315885661631</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.010057255363856</v>
+        <v>1.079115732434404</v>
       </c>
       <c r="D12">
-        <v>1.023905575247047</v>
+        <v>1.073755960657315</v>
       </c>
       <c r="E12">
-        <v>1.028457206471334</v>
+        <v>1.092586545756304</v>
       </c>
       <c r="F12">
-        <v>1.032091247944018</v>
+        <v>1.09865877176214</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052623422915021</v>
+        <v>1.065109635445442</v>
       </c>
       <c r="J12">
-        <v>1.03944198989405</v>
+        <v>1.085462913684503</v>
       </c>
       <c r="K12">
-        <v>1.038588679132019</v>
+        <v>1.077231688229864</v>
       </c>
       <c r="L12">
-        <v>1.043058791084712</v>
+        <v>1.095998141430697</v>
       </c>
       <c r="M12">
-        <v>1.046628416562065</v>
+        <v>1.102050201514255</v>
       </c>
       <c r="N12">
-        <v>1.040918116745362</v>
+        <v>1.087004395526271</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.010634931708228</v>
+        <v>1.079200360772319</v>
       </c>
       <c r="D13">
-        <v>1.02437483738564</v>
+        <v>1.073823510920015</v>
       </c>
       <c r="E13">
-        <v>1.029010374550684</v>
+        <v>1.092670429267512</v>
       </c>
       <c r="F13">
-        <v>1.032658978355325</v>
+        <v>1.09874574532313</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052910657234298</v>
+        <v>1.065144890252196</v>
       </c>
       <c r="J13">
-        <v>1.039904922118103</v>
+        <v>1.085529667384998</v>
       </c>
       <c r="K13">
-        <v>1.039006975073293</v>
+        <v>1.077289751460133</v>
       </c>
       <c r="L13">
-        <v>1.04355987404553</v>
+        <v>1.096072673372834</v>
       </c>
       <c r="M13">
-        <v>1.047144110033667</v>
+        <v>1.102127873558847</v>
       </c>
       <c r="N13">
-        <v>1.041381706386273</v>
+        <v>1.087071244024678</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.012515775654469</v>
+        <v>1.079477537860463</v>
       </c>
       <c r="D14">
-        <v>1.025902699607229</v>
+        <v>1.074044726616702</v>
       </c>
       <c r="E14">
-        <v>1.03081169684579</v>
+        <v>1.092945177941979</v>
       </c>
       <c r="F14">
-        <v>1.034507798181706</v>
+        <v>1.099030623846405</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.053845360457691</v>
+        <v>1.065260298494144</v>
       </c>
       <c r="J14">
-        <v>1.041411920377729</v>
+        <v>1.085748265486385</v>
       </c>
       <c r="K14">
-        <v>1.040368471635339</v>
+        <v>1.077479864978481</v>
       </c>
       <c r="L14">
-        <v>1.04519127667069</v>
+        <v>1.096316765714181</v>
       </c>
       <c r="M14">
-        <v>1.048823180153344</v>
+        <v>1.102382260064271</v>
       </c>
       <c r="N14">
-        <v>1.042890844756282</v>
+        <v>1.087290152560442</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.013665625554995</v>
+        <v>1.079648228884333</v>
       </c>
       <c r="D15">
-        <v>1.026836752850452</v>
+        <v>1.074180935009611</v>
       </c>
       <c r="E15">
-        <v>1.031913138079654</v>
+        <v>1.093114381960202</v>
       </c>
       <c r="F15">
-        <v>1.035638341262499</v>
+        <v>1.099206073086196</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.054416408555978</v>
+        <v>1.065331323755286</v>
       </c>
       <c r="J15">
-        <v>1.042333025868014</v>
+        <v>1.085882855281785</v>
       </c>
       <c r="K15">
-        <v>1.04120049404739</v>
+        <v>1.077596897107025</v>
       </c>
       <c r="L15">
-        <v>1.046188581316334</v>
+        <v>1.096467069685705</v>
       </c>
       <c r="M15">
-        <v>1.049849700409497</v>
+        <v>1.102538910737098</v>
       </c>
       <c r="N15">
-        <v>1.043813258322017</v>
+        <v>1.08742493348879</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.02022674171801</v>
+        <v>1.080640408799675</v>
       </c>
       <c r="D16">
-        <v>1.032166357669829</v>
+        <v>1.074972363514012</v>
       </c>
       <c r="E16">
-        <v>1.038201034504867</v>
+        <v>1.094098047006491</v>
       </c>
       <c r="F16">
-        <v>1.042093259214187</v>
+        <v>1.100226147615791</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.057669066910306</v>
+        <v>1.065743481829792</v>
       </c>
       <c r="J16">
-        <v>1.047585921198648</v>
+        <v>1.086664774394971</v>
       </c>
       <c r="K16">
-        <v>1.045943104567729</v>
+        <v>1.07827650966402</v>
       </c>
       <c r="L16">
-        <v>1.051878435084352</v>
+        <v>1.097340549456971</v>
       </c>
       <c r="M16">
-        <v>1.055707367420712</v>
+        <v>1.103449394280645</v>
       </c>
       <c r="N16">
-        <v>1.049073613366535</v>
+        <v>1.088207963016803</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.024232548274179</v>
+        <v>1.081261630923019</v>
       </c>
       <c r="D17">
-        <v>1.035420005567949</v>
+        <v>1.075467615248368</v>
       </c>
       <c r="E17">
-        <v>1.042042546650456</v>
+        <v>1.094714050725826</v>
       </c>
       <c r="F17">
-        <v>1.046037583951902</v>
+        <v>1.100865042787386</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.059649834031591</v>
+        <v>1.06600093211773</v>
       </c>
       <c r="J17">
-        <v>1.050790332627597</v>
+        <v>1.087153983522927</v>
       </c>
       <c r="K17">
-        <v>1.048834243826934</v>
+        <v>1.07870144396746</v>
       </c>
       <c r="L17">
-        <v>1.055351497377565</v>
+        <v>1.097887278626128</v>
       </c>
       <c r="M17">
-        <v>1.059283844484196</v>
+        <v>1.104019390854982</v>
       </c>
       <c r="N17">
-        <v>1.052282575427264</v>
+        <v>1.088697866877834</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.026531721902684</v>
+        <v>1.081623571187335</v>
       </c>
       <c r="D18">
-        <v>1.037287321702616</v>
+        <v>1.075756062190344</v>
       </c>
       <c r="E18">
-        <v>1.044248285765292</v>
+        <v>1.095072991150223</v>
       </c>
       <c r="F18">
-        <v>1.048302633882522</v>
+        <v>1.101237354518349</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.060784862757564</v>
+        <v>1.066150709737984</v>
       </c>
       <c r="J18">
-        <v>1.052628551749288</v>
+        <v>1.087438878057048</v>
       </c>
       <c r="K18">
-        <v>1.050492037164857</v>
+        <v>1.078948811508049</v>
       </c>
       <c r="L18">
-        <v>1.057344577312871</v>
+        <v>1.098205755064141</v>
       </c>
       <c r="M18">
-        <v>1.061336621390032</v>
+        <v>1.104351459018068</v>
       </c>
       <c r="N18">
-        <v>1.054123405030955</v>
+        <v>1.088983165994872</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.027309543951401</v>
+        <v>1.081746914709075</v>
       </c>
       <c r="D19">
-        <v>1.037919014599943</v>
+        <v>1.075854343428589</v>
       </c>
       <c r="E19">
-        <v>1.044994641345911</v>
+        <v>1.09519531923629</v>
       </c>
       <c r="F19">
-        <v>1.049069105451024</v>
+        <v>1.101364245125223</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.06116853277995</v>
+        <v>1.066201714322065</v>
       </c>
       <c r="J19">
-        <v>1.053250261336916</v>
+        <v>1.087535943301576</v>
       </c>
       <c r="K19">
-        <v>1.051052602625155</v>
+        <v>1.079033074784457</v>
       </c>
       <c r="L19">
-        <v>1.058018789428148</v>
+        <v>1.09831427622838</v>
       </c>
       <c r="M19">
-        <v>1.062031086810284</v>
+        <v>1.104464618050992</v>
       </c>
       <c r="N19">
-        <v>1.054745997517508</v>
+        <v>1.08908036908318</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.023806673753731</v>
+        <v>1.081195021990425</v>
       </c>
       <c r="D20">
-        <v>1.035074110633984</v>
+        <v>1.075414523475726</v>
       </c>
       <c r="E20">
-        <v>1.041634048172273</v>
+        <v>1.094647997124842</v>
       </c>
       <c r="F20">
-        <v>1.045618123720808</v>
+        <v>1.100796531175879</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.059439442598107</v>
+        <v>1.065973350406439</v>
       </c>
       <c r="J20">
-        <v>1.05044975994841</v>
+        <v>1.087101542948784</v>
       </c>
       <c r="K20">
-        <v>1.04852704098804</v>
+        <v>1.078655903249889</v>
       </c>
       <c r="L20">
-        <v>1.054982293813455</v>
+        <v>1.097828663450508</v>
       </c>
       <c r="M20">
-        <v>1.058903610881409</v>
+        <v>1.103958277215357</v>
       </c>
       <c r="N20">
-        <v>1.051941519095808</v>
+        <v>1.088645351832062</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.011963803665369</v>
+        <v>1.079395934253642</v>
       </c>
       <c r="D21">
-        <v>1.025454317393937</v>
+        <v>1.073979602858384</v>
       </c>
       <c r="E21">
-        <v>1.030283018596583</v>
+        <v>1.092864287520159</v>
       </c>
       <c r="F21">
-        <v>1.033965167349327</v>
+        <v>1.098946749627326</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.053571132249534</v>
+        <v>1.065226330649271</v>
       </c>
       <c r="J21">
-        <v>1.040969701581721</v>
+        <v>1.085683913755777</v>
       </c>
       <c r="K21">
-        <v>1.039968980659784</v>
+        <v>1.077423902782271</v>
       </c>
       <c r="L21">
-        <v>1.044712518544227</v>
+        <v>1.096244905247493</v>
       </c>
       <c r="M21">
-        <v>1.048330417488377</v>
+        <v>1.102307367363579</v>
       </c>
       <c r="N21">
-        <v>1.04244799795886</v>
+        <v>1.087225709442996</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.004130498247427</v>
+        <v>1.078260993411612</v>
       </c>
       <c r="D22">
-        <v>1.019091209174027</v>
+        <v>1.073073496233953</v>
       </c>
       <c r="E22">
-        <v>1.022784182454718</v>
+        <v>1.091739417413245</v>
       </c>
       <c r="F22">
-        <v>1.026269503604548</v>
+        <v>1.097780507454907</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049672515119561</v>
+        <v>1.064753094515765</v>
       </c>
       <c r="J22">
-        <v>1.034690463933857</v>
+        <v>1.084788425517209</v>
       </c>
       <c r="K22">
-        <v>1.034293721113793</v>
+        <v>1.076644803886797</v>
       </c>
       <c r="L22">
-        <v>1.037917401040952</v>
+        <v>1.095245242343522</v>
       </c>
       <c r="M22">
-        <v>1.041337921502582</v>
+        <v>1.10126566397704</v>
       </c>
       <c r="N22">
-        <v>1.036159843073298</v>
+        <v>1.086328949508415</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.008322518947867</v>
+        <v>1.07886301080439</v>
       </c>
       <c r="D23">
-        <v>1.022496407836332</v>
+        <v>1.073554215806679</v>
       </c>
       <c r="E23">
-        <v>1.026796305222777</v>
+        <v>1.092336057741369</v>
       </c>
       <c r="F23">
-        <v>1.030386688825295</v>
+        <v>1.098399063890686</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.051760448328489</v>
+        <v>1.065004305503197</v>
       </c>
       <c r="J23">
-        <v>1.038051611161668</v>
+        <v>1.085263540223106</v>
       </c>
       <c r="K23">
-        <v>1.037332194820341</v>
+        <v>1.077058248670659</v>
       </c>
       <c r="L23">
-        <v>1.041554010456228</v>
+        <v>1.095775556023331</v>
       </c>
       <c r="M23">
-        <v>1.045079844768217</v>
+        <v>1.101818247104029</v>
       </c>
       <c r="N23">
-        <v>1.039525763515702</v>
+        <v>1.086804738931691</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.023999223000997</v>
+        <v>1.081225120960746</v>
       </c>
       <c r="D24">
-        <v>1.035230499446828</v>
+        <v>1.075438514675652</v>
       </c>
       <c r="E24">
-        <v>1.041818738568379</v>
+        <v>1.0946778450289</v>
       </c>
       <c r="F24">
-        <v>1.045807769283727</v>
+        <v>1.100827489690043</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.059534571954295</v>
+        <v>1.065985814595747</v>
       </c>
       <c r="J24">
-        <v>1.050603745026288</v>
+        <v>1.087125239986191</v>
       </c>
       <c r="K24">
-        <v>1.048665940598692</v>
+        <v>1.078676482652123</v>
       </c>
       <c r="L24">
-        <v>1.055149221609116</v>
+        <v>1.097855150427409</v>
       </c>
       <c r="M24">
-        <v>1.059075524592125</v>
+        <v>1.103985893078057</v>
       </c>
       <c r="N24">
-        <v>1.05209572285016</v>
+        <v>1.08866908252198</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.040742182298492</v>
+        <v>1.083950262960047</v>
       </c>
       <c r="D25">
-        <v>1.048824710092568</v>
+        <v>1.077608509076448</v>
       </c>
       <c r="E25">
-        <v>1.05789533384569</v>
+        <v>1.097381125284486</v>
       </c>
       <c r="F25">
-        <v>1.062321493439379</v>
+        <v>1.103632059843853</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.067767142793687</v>
+        <v>1.067109576588241</v>
       </c>
       <c r="J25">
-        <v>1.063972118770763</v>
+        <v>1.089267917819557</v>
       </c>
       <c r="K25">
-        <v>1.060709579368792</v>
+        <v>1.08053519384912</v>
       </c>
       <c r="L25">
-        <v>1.069656782521845</v>
+        <v>1.100251919066999</v>
       </c>
       <c r="M25">
-        <v>1.074023677819673</v>
+        <v>1.106485635654225</v>
       </c>
       <c r="N25">
-        <v>1.065483081218725</v>
+        <v>1.090814803203636</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_46/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.086111515195323</v>
+        <v>1.053137895709934</v>
       </c>
       <c r="D2">
-        <v>1.079326327007237</v>
+        <v>1.058879978047211</v>
       </c>
       <c r="E2">
-        <v>1.099526299028462</v>
+        <v>1.069819668732264</v>
       </c>
       <c r="F2">
-        <v>1.105858638932316</v>
+        <v>1.074578335682961</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.067993881393705</v>
+        <v>1.073804728915792</v>
       </c>
       <c r="J2">
-        <v>1.090963080620817</v>
+        <v>1.07383764125894</v>
       </c>
       <c r="K2">
-        <v>1.082002670846362</v>
+        <v>1.069575725900037</v>
       </c>
       <c r="L2">
-        <v>1.102150772160547</v>
+        <v>1.080385018429604</v>
       </c>
       <c r="M2">
-        <v>1.108467271695202</v>
+        <v>1.085087988198243</v>
       </c>
       <c r="N2">
-        <v>1.092512373330512</v>
+        <v>1.075362613880426</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.08767390701954</v>
+        <v>1.061665470151208</v>
       </c>
       <c r="D3">
-        <v>1.080566316421894</v>
+        <v>1.065790313346451</v>
       </c>
       <c r="E3">
-        <v>1.101077789504023</v>
+        <v>1.07803411399089</v>
       </c>
       <c r="F3">
-        <v>1.107469600343693</v>
+        <v>1.083026584769248</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.068629136575458</v>
+        <v>1.077924493476281</v>
       </c>
       <c r="J3">
-        <v>1.092186123496859</v>
+        <v>1.080605436616477</v>
       </c>
       <c r="K3">
-        <v>1.083059683237019</v>
+        <v>1.075645303385063</v>
       </c>
       <c r="L3">
-        <v>1.103522324142208</v>
+        <v>1.087757177782991</v>
       </c>
       <c r="M3">
-        <v>1.109899314204997</v>
+        <v>1.092696901804107</v>
       </c>
       <c r="N3">
-        <v>1.093737153067724</v>
+        <v>1.082140020283648</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.088681789224686</v>
+        <v>1.066987485844662</v>
       </c>
       <c r="D4">
-        <v>1.081365366605998</v>
+        <v>1.070099211071873</v>
       </c>
       <c r="E4">
-        <v>1.1020789707177</v>
+        <v>1.083165441565023</v>
       </c>
       <c r="F4">
-        <v>1.108509433274302</v>
+        <v>1.088306149217378</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.06903707286139</v>
+        <v>1.080479816080195</v>
       </c>
       <c r="J4">
-        <v>1.092973980237557</v>
+        <v>1.084820103215624</v>
       </c>
       <c r="K4">
-        <v>1.08373977272769</v>
+        <v>1.079419275443658</v>
       </c>
       <c r="L4">
-        <v>1.10440656443865</v>
+        <v>1.092353973133846</v>
       </c>
       <c r="M4">
-        <v>1.110822874699404</v>
+        <v>1.09744398185772</v>
       </c>
       <c r="N4">
-        <v>1.094526128655362</v>
+        <v>1.086360672192796</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.089104775717904</v>
+        <v>1.069180980807512</v>
       </c>
       <c r="D5">
-        <v>1.081700505934934</v>
+        <v>1.071874162103677</v>
       </c>
       <c r="E5">
-        <v>1.10249922390309</v>
+        <v>1.085281424011947</v>
       </c>
       <c r="F5">
-        <v>1.108945976612105</v>
+        <v>1.090483783478238</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.069207829364179</v>
+        <v>1.081529183433882</v>
       </c>
       <c r="J5">
-        <v>1.093304359584229</v>
+        <v>1.086554987213985</v>
       </c>
       <c r="K5">
-        <v>1.084024765864963</v>
+        <v>1.080971339502448</v>
       </c>
       <c r="L5">
-        <v>1.104777533147244</v>
+        <v>1.094247531956503</v>
       </c>
       <c r="M5">
-        <v>1.111210416650344</v>
+        <v>1.099400083008705</v>
       </c>
       <c r="N5">
-        <v>1.094856977178601</v>
+        <v>1.088098019925428</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.089175754730363</v>
+        <v>1.06954678722347</v>
       </c>
       <c r="D6">
-        <v>1.081756731773883</v>
+        <v>1.072170108773698</v>
       </c>
       <c r="E6">
-        <v>1.102569748874368</v>
+        <v>1.085634365812746</v>
       </c>
       <c r="F6">
-        <v>1.10901923918176</v>
+        <v>1.090847039498956</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.069236456920753</v>
+        <v>1.081703959440607</v>
       </c>
       <c r="J6">
-        <v>1.093359783028166</v>
+        <v>1.086844180620926</v>
       </c>
       <c r="K6">
-        <v>1.084072564000112</v>
+        <v>1.081229974502491</v>
       </c>
       <c r="L6">
-        <v>1.104839775832349</v>
+        <v>1.094563256470699</v>
       </c>
       <c r="M6">
-        <v>1.111275444585799</v>
+        <v>1.099726272903891</v>
       </c>
       <c r="N6">
-        <v>1.094912479330186</v>
+        <v>1.088387624020178</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.088687444031045</v>
+        <v>1.067016964087823</v>
       </c>
       <c r="D7">
-        <v>1.081369847810485</v>
+        <v>1.070123068509231</v>
       </c>
       <c r="E7">
-        <v>1.102084588673171</v>
+        <v>1.083193873909916</v>
       </c>
       <c r="F7">
-        <v>1.10851526873824</v>
+        <v>1.088335407898744</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.069039357417028</v>
+        <v>1.080493933646123</v>
       </c>
       <c r="J7">
-        <v>1.092978398051729</v>
+        <v>1.084843427020752</v>
       </c>
       <c r="K7">
-        <v>1.083743584407922</v>
+        <v>1.079440147041336</v>
       </c>
       <c r="L7">
-        <v>1.104411524334948</v>
+        <v>1.09237942470026</v>
       </c>
       <c r="M7">
-        <v>1.110828055878775</v>
+        <v>1.097470271547786</v>
       </c>
       <c r="N7">
-        <v>1.094530552743337</v>
+        <v>1.086384029120402</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.086640180151288</v>
+        <v>1.056062307306103</v>
       </c>
       <c r="D8">
-        <v>1.079746077827358</v>
+        <v>1.061250542679416</v>
       </c>
       <c r="E8">
-        <v>1.100051206328459</v>
+        <v>1.072635657841147</v>
       </c>
       <c r="F8">
-        <v>1.10640360966252</v>
+        <v>1.077474011488899</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.068209217816452</v>
+        <v>1.075220873972029</v>
       </c>
       <c r="J8">
-        <v>1.091377151648578</v>
+        <v>1.076160464584747</v>
       </c>
       <c r="K8">
-        <v>1.082360699858036</v>
+        <v>1.071660152208485</v>
       </c>
       <c r="L8">
-        <v>1.102614973284847</v>
+        <v>1.082914045457419</v>
       </c>
       <c r="M8">
-        <v>1.108951878998046</v>
+        <v>1.08769766799707</v>
       </c>
       <c r="N8">
-        <v>1.092927032386627</v>
+        <v>1.077688735881788</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.08300841135702</v>
+        <v>1.035104325539026</v>
       </c>
       <c r="D9">
-        <v>1.076859014312974</v>
+        <v>1.044248340851057</v>
       </c>
       <c r="E9">
-        <v>1.09644663283486</v>
+        <v>1.052478092521502</v>
       </c>
       <c r="F9">
-        <v>1.102662393154863</v>
+        <v>1.056755619868589</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.066722261739977</v>
+        <v>1.065004129192781</v>
       </c>
       <c r="J9">
-        <v>1.088528018635396</v>
+        <v>1.059475577551417</v>
       </c>
       <c r="K9">
-        <v>1.079893822889963</v>
+        <v>1.056662112656839</v>
       </c>
       <c r="L9">
-        <v>1.099423864036657</v>
+        <v>1.064773493535346</v>
       </c>
       <c r="M9">
-        <v>1.105621817744058</v>
+        <v>1.068990416304382</v>
       </c>
       <c r="N9">
-        <v>1.090073853277768</v>
+        <v>1.060980154395087</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.080570149147531</v>
+        <v>1.019768837522989</v>
       </c>
       <c r="D10">
-        <v>1.074916337506234</v>
+        <v>1.031794415971877</v>
       </c>
       <c r="E10">
-        <v>1.094028383052663</v>
+        <v>1.037762032454263</v>
       </c>
       <c r="F10">
-        <v>1.100153899285964</v>
+        <v>1.041642546034947</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.065714334689234</v>
+        <v>1.057442391925217</v>
       </c>
       <c r="J10">
-        <v>1.086609427482301</v>
+        <v>1.047219490785423</v>
       </c>
       <c r="K10">
-        <v>1.07822842149857</v>
+        <v>1.045612399141503</v>
       </c>
       <c r="L10">
-        <v>1.097278706459719</v>
+        <v>1.05148138715721</v>
       </c>
       <c r="M10">
-        <v>1.103384924575015</v>
+        <v>1.055298545255325</v>
       </c>
       <c r="N10">
-        <v>1.08815253750517</v>
+        <v>1.048706662580092</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.079510125078636</v>
+        <v>1.012735788882357</v>
       </c>
       <c r="D11">
-        <v>1.074070731846755</v>
+        <v>1.026081422359891</v>
       </c>
       <c r="E11">
-        <v>1.092977480771924</v>
+        <v>1.031022435382919</v>
       </c>
       <c r="F11">
-        <v>1.099064118556567</v>
+        <v>1.034724101287149</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.065273860851421</v>
+        <v>1.053954647838075</v>
       </c>
       <c r="J11">
-        <v>1.085773962095441</v>
+        <v>1.041588177031598</v>
       </c>
       <c r="K11">
-        <v>1.077502210554354</v>
+        <v>1.040527690806538</v>
       </c>
       <c r="L11">
-        <v>1.09634546152598</v>
+        <v>1.045382104781767</v>
       </c>
       <c r="M11">
-        <v>1.102412167112976</v>
+        <v>1.049019594022199</v>
       </c>
       <c r="N11">
-        <v>1.087315885661631</v>
+        <v>1.043067351714817</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.079115732434404</v>
+        <v>1.010057255363856</v>
       </c>
       <c r="D12">
-        <v>1.073755960657315</v>
+        <v>1.023905575247047</v>
       </c>
       <c r="E12">
-        <v>1.092586545756304</v>
+        <v>1.028457206471333</v>
       </c>
       <c r="F12">
-        <v>1.09865877176214</v>
+        <v>1.032091247944018</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.065109635445442</v>
+        <v>1.052623422915021</v>
       </c>
       <c r="J12">
-        <v>1.085462913684503</v>
+        <v>1.03944198989405</v>
       </c>
       <c r="K12">
-        <v>1.077231688229864</v>
+        <v>1.038588679132019</v>
       </c>
       <c r="L12">
-        <v>1.095998141430697</v>
+        <v>1.043058791084711</v>
       </c>
       <c r="M12">
-        <v>1.102050201514255</v>
+        <v>1.046628416562064</v>
       </c>
       <c r="N12">
-        <v>1.087004395526271</v>
+        <v>1.040918116745362</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.079200360772319</v>
+        <v>1.010634931708228</v>
       </c>
       <c r="D13">
-        <v>1.073823510920015</v>
+        <v>1.02437483738564</v>
       </c>
       <c r="E13">
-        <v>1.092670429267512</v>
+        <v>1.029010374550684</v>
       </c>
       <c r="F13">
-        <v>1.09874574532313</v>
+        <v>1.032658978355325</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.065144890252196</v>
+        <v>1.052910657234298</v>
       </c>
       <c r="J13">
-        <v>1.085529667384998</v>
+        <v>1.039904922118103</v>
       </c>
       <c r="K13">
-        <v>1.077289751460133</v>
+        <v>1.039006975073292</v>
       </c>
       <c r="L13">
-        <v>1.096072673372834</v>
+        <v>1.04355987404553</v>
       </c>
       <c r="M13">
-        <v>1.102127873558847</v>
+        <v>1.047144110033667</v>
       </c>
       <c r="N13">
-        <v>1.087071244024678</v>
+        <v>1.041381706386273</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.079477537860463</v>
+        <v>1.012515775654472</v>
       </c>
       <c r="D14">
-        <v>1.074044726616702</v>
+        <v>1.025902699607231</v>
       </c>
       <c r="E14">
-        <v>1.092945177941979</v>
+        <v>1.030811696845793</v>
       </c>
       <c r="F14">
-        <v>1.099030623846405</v>
+        <v>1.034507798181708</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.065260298494144</v>
+        <v>1.053845360457692</v>
       </c>
       <c r="J14">
-        <v>1.085748265486385</v>
+        <v>1.041411920377731</v>
       </c>
       <c r="K14">
-        <v>1.077479864978481</v>
+        <v>1.04036847163534</v>
       </c>
       <c r="L14">
-        <v>1.096316765714181</v>
+        <v>1.045191276670692</v>
       </c>
       <c r="M14">
-        <v>1.102382260064271</v>
+        <v>1.048823180153347</v>
       </c>
       <c r="N14">
-        <v>1.087290152560442</v>
+        <v>1.042890844756284</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.079648228884333</v>
+        <v>1.013665625554995</v>
       </c>
       <c r="D15">
-        <v>1.074180935009611</v>
+        <v>1.026836752850451</v>
       </c>
       <c r="E15">
-        <v>1.093114381960202</v>
+        <v>1.031913138079654</v>
       </c>
       <c r="F15">
-        <v>1.099206073086196</v>
+        <v>1.035638341262499</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.065331323755286</v>
+        <v>1.054416408555978</v>
       </c>
       <c r="J15">
-        <v>1.085882855281785</v>
+        <v>1.042333025868014</v>
       </c>
       <c r="K15">
-        <v>1.077596897107025</v>
+        <v>1.04120049404739</v>
       </c>
       <c r="L15">
-        <v>1.096467069685705</v>
+        <v>1.046188581316334</v>
       </c>
       <c r="M15">
-        <v>1.102538910737098</v>
+        <v>1.049849700409497</v>
       </c>
       <c r="N15">
-        <v>1.08742493348879</v>
+        <v>1.043813258322016</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.080640408799675</v>
+        <v>1.020226741718009</v>
       </c>
       <c r="D16">
-        <v>1.074972363514012</v>
+        <v>1.032166357669827</v>
       </c>
       <c r="E16">
-        <v>1.094098047006491</v>
+        <v>1.038201034504865</v>
       </c>
       <c r="F16">
-        <v>1.100226147615791</v>
+        <v>1.042093259214185</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.065743481829792</v>
+        <v>1.057669066910305</v>
       </c>
       <c r="J16">
-        <v>1.086664774394971</v>
+        <v>1.047585921198647</v>
       </c>
       <c r="K16">
-        <v>1.07827650966402</v>
+        <v>1.045943104567728</v>
       </c>
       <c r="L16">
-        <v>1.097340549456971</v>
+        <v>1.051878435084351</v>
       </c>
       <c r="M16">
-        <v>1.103449394280645</v>
+        <v>1.05570736742071</v>
       </c>
       <c r="N16">
-        <v>1.088207963016803</v>
+        <v>1.049073613366534</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.081261630923019</v>
+        <v>1.024232548274178</v>
       </c>
       <c r="D17">
-        <v>1.075467615248368</v>
+        <v>1.035420005567949</v>
       </c>
       <c r="E17">
-        <v>1.094714050725826</v>
+        <v>1.042042546650455</v>
       </c>
       <c r="F17">
-        <v>1.100865042787386</v>
+        <v>1.046037583951901</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.06600093211773</v>
+        <v>1.05964983403159</v>
       </c>
       <c r="J17">
-        <v>1.087153983522927</v>
+        <v>1.050790332627596</v>
       </c>
       <c r="K17">
-        <v>1.07870144396746</v>
+        <v>1.048834243826933</v>
       </c>
       <c r="L17">
-        <v>1.097887278626128</v>
+        <v>1.055351497377564</v>
       </c>
       <c r="M17">
-        <v>1.104019390854982</v>
+        <v>1.059283844484195</v>
       </c>
       <c r="N17">
-        <v>1.088697866877834</v>
+        <v>1.052282575427263</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.081623571187335</v>
+        <v>1.026531721902682</v>
       </c>
       <c r="D18">
-        <v>1.075756062190344</v>
+        <v>1.037287321702614</v>
       </c>
       <c r="E18">
-        <v>1.095072991150223</v>
+        <v>1.044248285765289</v>
       </c>
       <c r="F18">
-        <v>1.101237354518349</v>
+        <v>1.04830263388252</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.066150709737984</v>
+        <v>1.060784862757563</v>
       </c>
       <c r="J18">
-        <v>1.087438878057048</v>
+        <v>1.052628551749286</v>
       </c>
       <c r="K18">
-        <v>1.078948811508049</v>
+        <v>1.050492037164855</v>
       </c>
       <c r="L18">
-        <v>1.098205755064141</v>
+        <v>1.057344577312869</v>
       </c>
       <c r="M18">
-        <v>1.104351459018068</v>
+        <v>1.06133662139003</v>
       </c>
       <c r="N18">
-        <v>1.088983165994872</v>
+        <v>1.054123405030953</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.081746914709075</v>
+        <v>1.027309543951398</v>
       </c>
       <c r="D19">
-        <v>1.075854343428589</v>
+        <v>1.037919014599941</v>
       </c>
       <c r="E19">
-        <v>1.09519531923629</v>
+        <v>1.044994641345907</v>
       </c>
       <c r="F19">
-        <v>1.101364245125223</v>
+        <v>1.04906910545102</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.066201714322065</v>
+        <v>1.061168532779948</v>
       </c>
       <c r="J19">
-        <v>1.087535943301576</v>
+        <v>1.053250261336913</v>
       </c>
       <c r="K19">
-        <v>1.079033074784457</v>
+        <v>1.051052602625152</v>
       </c>
       <c r="L19">
-        <v>1.09831427622838</v>
+        <v>1.058018789428144</v>
       </c>
       <c r="M19">
-        <v>1.104464618050992</v>
+        <v>1.062031086810281</v>
       </c>
       <c r="N19">
-        <v>1.08908036908318</v>
+        <v>1.054745997517505</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.081195021990425</v>
+        <v>1.023806673753733</v>
       </c>
       <c r="D20">
-        <v>1.075414523475726</v>
+        <v>1.035074110633985</v>
       </c>
       <c r="E20">
-        <v>1.094647997124842</v>
+        <v>1.041634048172275</v>
       </c>
       <c r="F20">
-        <v>1.100796531175879</v>
+        <v>1.04561812372081</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.065973350406439</v>
+        <v>1.059439442598108</v>
       </c>
       <c r="J20">
-        <v>1.087101542948784</v>
+        <v>1.050449759948412</v>
       </c>
       <c r="K20">
-        <v>1.078655903249889</v>
+        <v>1.048527040988042</v>
       </c>
       <c r="L20">
-        <v>1.097828663450508</v>
+        <v>1.054982293813457</v>
       </c>
       <c r="M20">
-        <v>1.103958277215357</v>
+        <v>1.058903610881411</v>
       </c>
       <c r="N20">
-        <v>1.088645351832062</v>
+        <v>1.05194151909581</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.079395934253642</v>
+        <v>1.011963803665369</v>
       </c>
       <c r="D21">
-        <v>1.073979602858384</v>
+        <v>1.025454317393937</v>
       </c>
       <c r="E21">
-        <v>1.092864287520159</v>
+        <v>1.030283018596584</v>
       </c>
       <c r="F21">
-        <v>1.098946749627326</v>
+        <v>1.033965167349328</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.065226330649271</v>
+        <v>1.053571132249534</v>
       </c>
       <c r="J21">
-        <v>1.085683913755777</v>
+        <v>1.040969701581721</v>
       </c>
       <c r="K21">
-        <v>1.077423902782271</v>
+        <v>1.039968980659784</v>
       </c>
       <c r="L21">
-        <v>1.096244905247493</v>
+        <v>1.044712518544227</v>
       </c>
       <c r="M21">
-        <v>1.102307367363579</v>
+        <v>1.048330417488377</v>
       </c>
       <c r="N21">
-        <v>1.087225709442996</v>
+        <v>1.042447997958861</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.078260993411612</v>
+        <v>1.004130498247426</v>
       </c>
       <c r="D22">
-        <v>1.073073496233953</v>
+        <v>1.019091209174027</v>
       </c>
       <c r="E22">
-        <v>1.091739417413245</v>
+        <v>1.022784182454719</v>
       </c>
       <c r="F22">
-        <v>1.097780507454907</v>
+        <v>1.026269503604548</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.064753094515765</v>
+        <v>1.049672515119562</v>
       </c>
       <c r="J22">
-        <v>1.084788425517209</v>
+        <v>1.034690463933857</v>
       </c>
       <c r="K22">
-        <v>1.076644803886797</v>
+        <v>1.034293721113793</v>
       </c>
       <c r="L22">
-        <v>1.095245242343522</v>
+        <v>1.037917401040952</v>
       </c>
       <c r="M22">
-        <v>1.10126566397704</v>
+        <v>1.041337921502582</v>
       </c>
       <c r="N22">
-        <v>1.086328949508415</v>
+        <v>1.036159843073297</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.07886301080439</v>
+        <v>1.008322518947863</v>
       </c>
       <c r="D23">
-        <v>1.073554215806679</v>
+        <v>1.022496407836328</v>
       </c>
       <c r="E23">
-        <v>1.092336057741369</v>
+        <v>1.026796305222772</v>
       </c>
       <c r="F23">
-        <v>1.098399063890686</v>
+        <v>1.03038668882529</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.065004305503197</v>
+        <v>1.051760448328487</v>
       </c>
       <c r="J23">
-        <v>1.085263540223106</v>
+        <v>1.038051611161664</v>
       </c>
       <c r="K23">
-        <v>1.077058248670659</v>
+        <v>1.037332194820338</v>
       </c>
       <c r="L23">
-        <v>1.095775556023331</v>
+        <v>1.041554010456224</v>
       </c>
       <c r="M23">
-        <v>1.101818247104029</v>
+        <v>1.045079844768213</v>
       </c>
       <c r="N23">
-        <v>1.086804738931691</v>
+        <v>1.039525763515698</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.081225120960746</v>
+        <v>1.023999223000999</v>
       </c>
       <c r="D24">
-        <v>1.075438514675652</v>
+        <v>1.035230499446829</v>
       </c>
       <c r="E24">
-        <v>1.0946778450289</v>
+        <v>1.041818738568381</v>
       </c>
       <c r="F24">
-        <v>1.100827489690043</v>
+        <v>1.045807769283729</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.065985814595747</v>
+        <v>1.059534571954296</v>
       </c>
       <c r="J24">
-        <v>1.087125239986191</v>
+        <v>1.050603745026291</v>
       </c>
       <c r="K24">
-        <v>1.078676482652123</v>
+        <v>1.048665940598693</v>
       </c>
       <c r="L24">
-        <v>1.097855150427409</v>
+        <v>1.055149221609118</v>
       </c>
       <c r="M24">
-        <v>1.103985893078057</v>
+        <v>1.059075524592127</v>
       </c>
       <c r="N24">
-        <v>1.08866908252198</v>
+        <v>1.052095722850162</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.083950262960047</v>
+        <v>1.040742182298493</v>
       </c>
       <c r="D25">
-        <v>1.077608509076448</v>
+        <v>1.048824710092569</v>
       </c>
       <c r="E25">
-        <v>1.097381125284486</v>
+        <v>1.057895333845691</v>
       </c>
       <c r="F25">
-        <v>1.103632059843853</v>
+        <v>1.06232149343938</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.067109576588241</v>
+        <v>1.067767142793687</v>
       </c>
       <c r="J25">
-        <v>1.089267917819557</v>
+        <v>1.063972118770764</v>
       </c>
       <c r="K25">
-        <v>1.08053519384912</v>
+        <v>1.060709579368793</v>
       </c>
       <c r="L25">
-        <v>1.100251919066999</v>
+        <v>1.069656782521847</v>
       </c>
       <c r="M25">
-        <v>1.106485635654225</v>
+        <v>1.074023677819674</v>
       </c>
       <c r="N25">
-        <v>1.090814803203636</v>
+        <v>1.065483081218726</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_46/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.053137895709934</v>
+        <v>1.027692971639475</v>
       </c>
       <c r="D2">
-        <v>1.058879978047211</v>
+        <v>1.040716829286533</v>
       </c>
       <c r="E2">
-        <v>1.069819668732264</v>
+        <v>1.042987985415873</v>
       </c>
       <c r="F2">
-        <v>1.074578335682961</v>
+        <v>1.045107049389189</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.073804728915792</v>
+        <v>1.058880856425258</v>
       </c>
       <c r="J2">
-        <v>1.07383764125894</v>
+        <v>1.049075803292531</v>
       </c>
       <c r="K2">
-        <v>1.069575725900037</v>
+        <v>1.05163662608431</v>
       </c>
       <c r="L2">
-        <v>1.080385018429604</v>
+        <v>1.053879234530161</v>
       </c>
       <c r="M2">
-        <v>1.085087988198243</v>
+        <v>1.055971802009009</v>
       </c>
       <c r="N2">
-        <v>1.075362613880426</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.019172019472535</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.052870213235528</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.04758179366526</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.061665470151208</v>
+        <v>1.032085241704679</v>
       </c>
       <c r="D3">
-        <v>1.065790313346451</v>
+        <v>1.04372543904472</v>
       </c>
       <c r="E3">
-        <v>1.07803411399089</v>
+        <v>1.046803578956571</v>
       </c>
       <c r="F3">
-        <v>1.083026584769248</v>
+        <v>1.04863837415657</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.077924493476281</v>
+        <v>1.060303805132669</v>
       </c>
       <c r="J3">
-        <v>1.080605436616477</v>
+        <v>1.05173786925158</v>
       </c>
       <c r="K3">
-        <v>1.075645303385063</v>
+        <v>1.053827819348406</v>
       </c>
       <c r="L3">
-        <v>1.087757177782991</v>
+        <v>1.056870675151893</v>
       </c>
       <c r="M3">
-        <v>1.092696901804107</v>
+        <v>1.058684559984176</v>
       </c>
       <c r="N3">
-        <v>1.082140020283648</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.020162194487795</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.055017140207035</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.04912849029742</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.066987485844662</v>
+        <v>1.034870374113011</v>
       </c>
       <c r="D4">
-        <v>1.070099211071873</v>
+        <v>1.045636280245501</v>
       </c>
       <c r="E4">
-        <v>1.083165441565023</v>
+        <v>1.049228641485806</v>
       </c>
       <c r="F4">
-        <v>1.088306149217378</v>
+        <v>1.050886016510264</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.080479816080195</v>
+        <v>1.061195847958912</v>
       </c>
       <c r="J4">
-        <v>1.084820103215624</v>
+        <v>1.053422280479862</v>
       </c>
       <c r="K4">
-        <v>1.079419275443658</v>
+        <v>1.055213431586023</v>
       </c>
       <c r="L4">
-        <v>1.092353973133846</v>
+        <v>1.058767120058003</v>
       </c>
       <c r="M4">
-        <v>1.09744398185772</v>
+        <v>1.060406762137742</v>
       </c>
       <c r="N4">
-        <v>1.086360672192796</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.020788091797499</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.056380119778917</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.0501090974105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.069180980807512</v>
+        <v>1.036033551633166</v>
       </c>
       <c r="D5">
-        <v>1.071874162103677</v>
+        <v>1.046437440956166</v>
       </c>
       <c r="E5">
-        <v>1.085281424011947</v>
+        <v>1.050242951558051</v>
       </c>
       <c r="F5">
-        <v>1.090483783478238</v>
+        <v>1.051826162053594</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.081529183433882</v>
+        <v>1.061567852656267</v>
       </c>
       <c r="J5">
-        <v>1.086554987213985</v>
+        <v>1.054126904067625</v>
       </c>
       <c r="K5">
-        <v>1.080971339502448</v>
+        <v>1.055794561494266</v>
       </c>
       <c r="L5">
-        <v>1.094247531956503</v>
+        <v>1.059560204771022</v>
       </c>
       <c r="M5">
-        <v>1.099400083008705</v>
+        <v>1.061126932975739</v>
       </c>
       <c r="N5">
-        <v>1.088098019925428</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.021051534655458</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.056950074295845</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.050527065329461</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.06954678722347</v>
+        <v>1.036234778088075</v>
       </c>
       <c r="D6">
-        <v>1.072170108773698</v>
+        <v>1.046579014742852</v>
       </c>
       <c r="E6">
-        <v>1.085634365812746</v>
+        <v>1.05041873736478</v>
       </c>
       <c r="F6">
-        <v>1.090847039498956</v>
+        <v>1.0519882506748</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.081703959440607</v>
+        <v>1.061634438700127</v>
       </c>
       <c r="J6">
-        <v>1.086844180620926</v>
+        <v>1.054251234999694</v>
       </c>
       <c r="K6">
-        <v>1.081229974502491</v>
+        <v>1.055899160585231</v>
       </c>
       <c r="L6">
-        <v>1.094563256470699</v>
+        <v>1.059698843514495</v>
       </c>
       <c r="M6">
-        <v>1.099726272903891</v>
+        <v>1.061252093023287</v>
       </c>
       <c r="N6">
-        <v>1.088387624020178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.021100170648374</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.057049127880719</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.050609645538694</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.067016964087823</v>
+        <v>1.034904057416079</v>
       </c>
       <c r="D7">
-        <v>1.070123068509231</v>
+        <v>1.045667351105728</v>
       </c>
       <c r="E7">
-        <v>1.083193873909916</v>
+        <v>1.04925864522924</v>
       </c>
       <c r="F7">
-        <v>1.088335407898744</v>
+        <v>1.050911421027444</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.080493933646123</v>
+        <v>1.061213028978002</v>
       </c>
       <c r="J7">
-        <v>1.084843427020752</v>
+        <v>1.053449398028209</v>
       </c>
       <c r="K7">
-        <v>1.079440147041336</v>
+        <v>1.055241339382989</v>
       </c>
       <c r="L7">
-        <v>1.09237942470026</v>
+        <v>1.058793987819707</v>
       </c>
       <c r="M7">
-        <v>1.097470271547786</v>
+        <v>1.060429086890013</v>
       </c>
       <c r="N7">
-        <v>1.086384029120402</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.0208041406122</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.056397787945031</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.050148665115691</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.056062307306103</v>
+        <v>1.02921253451463</v>
       </c>
       <c r="D8">
-        <v>1.061250542679416</v>
+        <v>1.041766870153888</v>
       </c>
       <c r="E8">
-        <v>1.072635657841147</v>
+        <v>1.044307711881348</v>
       </c>
       <c r="F8">
-        <v>1.077474011488899</v>
+        <v>1.046324745505932</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.075220873972029</v>
+        <v>1.059383193576155</v>
       </c>
       <c r="J8">
-        <v>1.076160464584747</v>
+        <v>1.050005994816858</v>
       </c>
       <c r="K8">
-        <v>1.071660152208485</v>
+        <v>1.052409311494041</v>
       </c>
       <c r="L8">
-        <v>1.082914045457419</v>
+        <v>1.054919177955044</v>
       </c>
       <c r="M8">
-        <v>1.08769766799707</v>
+        <v>1.056911755056469</v>
       </c>
       <c r="N8">
-        <v>1.077688735881788</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.019525989231891</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.05361411019928</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.048150756013045</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.035104325539026</v>
+        <v>1.018695606510952</v>
       </c>
       <c r="D9">
-        <v>1.044248340851057</v>
+        <v>1.034573426141217</v>
       </c>
       <c r="E9">
-        <v>1.052478092521502</v>
+        <v>1.035204373989822</v>
       </c>
       <c r="F9">
-        <v>1.056755619868589</v>
+        <v>1.037921239583944</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.065004129192781</v>
+        <v>1.055911841281213</v>
       </c>
       <c r="J9">
-        <v>1.059475577551417</v>
+        <v>1.043605018982586</v>
       </c>
       <c r="K9">
-        <v>1.056662112656839</v>
+        <v>1.047129416370689</v>
       </c>
       <c r="L9">
-        <v>1.064773493535346</v>
+        <v>1.047750986470694</v>
       </c>
       <c r="M9">
-        <v>1.068990416304382</v>
+        <v>1.050427636872539</v>
       </c>
       <c r="N9">
-        <v>1.060980154395087</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.017135180253576</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.048482439055767</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.044414454161136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.019768837522989</v>
+        <v>1.011486054837596</v>
       </c>
       <c r="D10">
-        <v>1.031794415971877</v>
+        <v>1.029679384859062</v>
       </c>
       <c r="E10">
-        <v>1.037762032454263</v>
+        <v>1.029043939753162</v>
       </c>
       <c r="F10">
-        <v>1.041642546034947</v>
+        <v>1.032296837073894</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.057442391925217</v>
+        <v>1.053511716118135</v>
       </c>
       <c r="J10">
-        <v>1.047219490785423</v>
+        <v>1.039251253821185</v>
       </c>
       <c r="K10">
-        <v>1.045612399141503</v>
+        <v>1.043532677371266</v>
       </c>
       <c r="L10">
-        <v>1.05148138715721</v>
+        <v>1.042907877240878</v>
       </c>
       <c r="M10">
-        <v>1.055298545255325</v>
+        <v>1.046106459974602</v>
       </c>
       <c r="N10">
-        <v>1.048706662580092</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.015537752592062</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.045113574232089</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.041888027430988</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.012735788882357</v>
+        <v>1.009408615213634</v>
       </c>
       <c r="D11">
-        <v>1.026081422359891</v>
+        <v>1.028396801472787</v>
       </c>
       <c r="E11">
-        <v>1.031022435382919</v>
+        <v>1.027656553930792</v>
       </c>
       <c r="F11">
-        <v>1.034724101287149</v>
+        <v>1.03139638945911</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.053954647838075</v>
+        <v>1.05304739735758</v>
       </c>
       <c r="J11">
-        <v>1.041588177031598</v>
+        <v>1.038395156102366</v>
       </c>
       <c r="K11">
-        <v>1.040527690806538</v>
+        <v>1.042802355002634</v>
       </c>
       <c r="L11">
-        <v>1.045382104781767</v>
+        <v>1.042075098529067</v>
       </c>
       <c r="M11">
-        <v>1.049019594022199</v>
+        <v>1.045749548447115</v>
       </c>
       <c r="N11">
-        <v>1.043067351714817</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.015475353439089</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.045263939591939</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.041404227658292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.010057255363856</v>
+        <v>1.009045182110351</v>
       </c>
       <c r="D12">
-        <v>1.023905575247047</v>
+        <v>1.02823735411123</v>
       </c>
       <c r="E12">
-        <v>1.028457206471333</v>
+        <v>1.02762894545996</v>
       </c>
       <c r="F12">
-        <v>1.032091247944018</v>
+        <v>1.031637418280893</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052623422915021</v>
+        <v>1.053095485406833</v>
       </c>
       <c r="J12">
-        <v>1.03944198989405</v>
+        <v>1.038471606251976</v>
       </c>
       <c r="K12">
-        <v>1.038588679132019</v>
+        <v>1.042842854726011</v>
       </c>
       <c r="L12">
-        <v>1.043058791084711</v>
+        <v>1.042245294365396</v>
       </c>
       <c r="M12">
-        <v>1.046628416562064</v>
+        <v>1.046182599196484</v>
       </c>
       <c r="N12">
-        <v>1.040918116745362</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.01569597063577</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.045930463006356</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.041432861810724</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.010634931708228</v>
+        <v>1.009998583880105</v>
       </c>
       <c r="D13">
-        <v>1.02437483738564</v>
+        <v>1.028954875818294</v>
       </c>
       <c r="E13">
-        <v>1.029010374550684</v>
+        <v>1.02866771530446</v>
       </c>
       <c r="F13">
-        <v>1.032658978355325</v>
+        <v>1.032800725072939</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052910657234298</v>
+        <v>1.053559937546938</v>
       </c>
       <c r="J13">
-        <v>1.039904922118103</v>
+        <v>1.039294635086215</v>
       </c>
       <c r="K13">
-        <v>1.039006975073292</v>
+        <v>1.043505358981514</v>
       </c>
       <c r="L13">
-        <v>1.04355987404553</v>
+        <v>1.043223290345474</v>
       </c>
       <c r="M13">
-        <v>1.047144110033667</v>
+        <v>1.047283367981757</v>
       </c>
       <c r="N13">
-        <v>1.041381706386273</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.016165251724399</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.047075588169734</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.041898796051023</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.012515775654472</v>
+        <v>1.011256055166063</v>
       </c>
       <c r="D14">
-        <v>1.025902699607231</v>
+        <v>1.029850822782507</v>
       </c>
       <c r="E14">
-        <v>1.030811696845793</v>
+        <v>1.029870066152249</v>
       </c>
       <c r="F14">
-        <v>1.034507798181708</v>
+        <v>1.034025552855472</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.053845360457692</v>
+        <v>1.054070534017524</v>
       </c>
       <c r="J14">
-        <v>1.041411920377731</v>
+        <v>1.040202948454793</v>
       </c>
       <c r="K14">
-        <v>1.04036847163534</v>
+        <v>1.044247189858628</v>
       </c>
       <c r="L14">
-        <v>1.045191276670692</v>
+        <v>1.044266096632874</v>
       </c>
       <c r="M14">
-        <v>1.048823180153347</v>
+        <v>1.048349277298555</v>
       </c>
       <c r="N14">
-        <v>1.042890844756284</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.016603379304615</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.048090404101327</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.042424697296877</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.013665625554995</v>
+        <v>1.011861037943997</v>
       </c>
       <c r="D15">
-        <v>1.026836752850451</v>
+        <v>1.030271804793969</v>
       </c>
       <c r="E15">
-        <v>1.031913138079654</v>
+        <v>1.030412109644337</v>
       </c>
       <c r="F15">
-        <v>1.035638341262499</v>
+        <v>1.034547538272724</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.054416408555978</v>
+        <v>1.054293617833934</v>
       </c>
       <c r="J15">
-        <v>1.042333025868014</v>
+        <v>1.040600418743504</v>
       </c>
       <c r="K15">
-        <v>1.04120049404739</v>
+        <v>1.04457567397191</v>
       </c>
       <c r="L15">
-        <v>1.046188581316334</v>
+        <v>1.044713544328217</v>
       </c>
       <c r="M15">
-        <v>1.049849700409497</v>
+        <v>1.048777600568879</v>
       </c>
       <c r="N15">
-        <v>1.043813258322016</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.016772138008293</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.048466268091651</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.042662756343736</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.020226741718009</v>
+        <v>1.014724614234192</v>
       </c>
       <c r="D16">
-        <v>1.032166357669827</v>
+        <v>1.032201908350707</v>
       </c>
       <c r="E16">
-        <v>1.038201034504865</v>
+        <v>1.032821378390375</v>
       </c>
       <c r="F16">
-        <v>1.042093259214185</v>
+        <v>1.03673373117805</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.057669066910305</v>
+        <v>1.055232944338229</v>
       </c>
       <c r="J16">
-        <v>1.047585921198647</v>
+        <v>1.042291007422643</v>
       </c>
       <c r="K16">
-        <v>1.045943104567728</v>
+        <v>1.045978065613671</v>
       </c>
       <c r="L16">
-        <v>1.051878435084351</v>
+        <v>1.0465872696618</v>
       </c>
       <c r="M16">
-        <v>1.05570736742071</v>
+        <v>1.050435150515141</v>
       </c>
       <c r="N16">
-        <v>1.049073613366534</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.017358913595502</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.04973793292619</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.043657410106136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.024232548274178</v>
+        <v>1.016267633931826</v>
       </c>
       <c r="D17">
-        <v>1.035420005567949</v>
+        <v>1.033218066672537</v>
       </c>
       <c r="E17">
-        <v>1.042042546650455</v>
+        <v>1.034044021479137</v>
       </c>
       <c r="F17">
-        <v>1.046037583951901</v>
+        <v>1.037767474207683</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.05964983403159</v>
+        <v>1.055685776928077</v>
       </c>
       <c r="J17">
-        <v>1.050790332627596</v>
+        <v>1.043114711957569</v>
       </c>
       <c r="K17">
-        <v>1.048834243826933</v>
+        <v>1.046667695797852</v>
       </c>
       <c r="L17">
-        <v>1.055351497377564</v>
+        <v>1.047480352706597</v>
       </c>
       <c r="M17">
-        <v>1.059283844484195</v>
+        <v>1.051144194539015</v>
       </c>
       <c r="N17">
-        <v>1.052282575427263</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.01758137890369</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.050170252734045</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.044147554309564</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.026531721902682</v>
+        <v>1.016780052437131</v>
       </c>
       <c r="D18">
-        <v>1.037287321702614</v>
+        <v>1.033504726881151</v>
       </c>
       <c r="E18">
-        <v>1.044248285765289</v>
+        <v>1.034301653955811</v>
       </c>
       <c r="F18">
-        <v>1.04830263388252</v>
+        <v>1.037829437146139</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.060784862757563</v>
+        <v>1.055737745375846</v>
       </c>
       <c r="J18">
-        <v>1.052628551749286</v>
+        <v>1.043223781879244</v>
       </c>
       <c r="K18">
-        <v>1.050492037164855</v>
+        <v>1.046769144420772</v>
       </c>
       <c r="L18">
-        <v>1.057344577312869</v>
+        <v>1.047553446809337</v>
       </c>
       <c r="M18">
-        <v>1.06133662139003</v>
+        <v>1.051025641815425</v>
       </c>
       <c r="N18">
-        <v>1.054123405030953</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.017483070033788</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.04984072203223</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.044207766221992</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.027309543951398</v>
+        <v>1.016382231547463</v>
       </c>
       <c r="D19">
-        <v>1.037919014599941</v>
+        <v>1.033158157985103</v>
       </c>
       <c r="E19">
-        <v>1.044994641345907</v>
+        <v>1.033699349238535</v>
       </c>
       <c r="F19">
-        <v>1.04906910545102</v>
+        <v>1.037015535686387</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.061168532779948</v>
+        <v>1.055444899052072</v>
       </c>
       <c r="J19">
-        <v>1.053250261336913</v>
+        <v>1.042709213601128</v>
       </c>
       <c r="K19">
-        <v>1.051052602625152</v>
+        <v>1.046366462912554</v>
       </c>
       <c r="L19">
-        <v>1.058018789428144</v>
+        <v>1.046899116330773</v>
       </c>
       <c r="M19">
-        <v>1.062031086810281</v>
+        <v>1.050163235466998</v>
       </c>
       <c r="N19">
-        <v>1.054745997517505</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.017118018277483</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.048836130094419</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.043929393365099</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.023806673753733</v>
+        <v>1.013411926000647</v>
       </c>
       <c r="D20">
-        <v>1.035074110633985</v>
+        <v>1.031005838864186</v>
       </c>
       <c r="E20">
-        <v>1.041634048172275</v>
+        <v>1.030691608145275</v>
       </c>
       <c r="F20">
-        <v>1.04561812372081</v>
+        <v>1.033796345985041</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.059439442598108</v>
+        <v>1.05417367420721</v>
       </c>
       <c r="J20">
-        <v>1.050449759948412</v>
+        <v>1.040435453877248</v>
       </c>
       <c r="K20">
-        <v>1.048527040988042</v>
+        <v>1.044524551043207</v>
       </c>
       <c r="L20">
-        <v>1.054982293813457</v>
+        <v>1.044215429022156</v>
       </c>
       <c r="M20">
-        <v>1.058903610881411</v>
+        <v>1.047269865548292</v>
       </c>
       <c r="N20">
-        <v>1.05194151909581</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.015992015849637</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.046023814521893</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.042631009329356</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.011963803665369</v>
+        <v>1.007765706405309</v>
       </c>
       <c r="D21">
-        <v>1.025454317393937</v>
+        <v>1.027154955914487</v>
       </c>
       <c r="E21">
-        <v>1.030283018596584</v>
+        <v>1.025805705752804</v>
       </c>
       <c r="F21">
-        <v>1.033965167349328</v>
+        <v>1.029271126100492</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.053571132249534</v>
+        <v>1.052229446323292</v>
       </c>
       <c r="J21">
-        <v>1.040969701581721</v>
+        <v>1.036942296869721</v>
       </c>
       <c r="K21">
-        <v>1.039968980659784</v>
+        <v>1.041639506731894</v>
       </c>
       <c r="L21">
-        <v>1.044712518544227</v>
+        <v>1.040314136524416</v>
       </c>
       <c r="M21">
-        <v>1.048330417488377</v>
+        <v>1.043718386921352</v>
       </c>
       <c r="N21">
-        <v>1.042447997958861</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.014661487118934</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.043172556399004</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.040594422168806</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.004130498247426</v>
+        <v>1.004179635358493</v>
       </c>
       <c r="D22">
-        <v>1.019091209174027</v>
+        <v>1.024713528988668</v>
       </c>
       <c r="E22">
-        <v>1.022784182454719</v>
+        <v>1.022732984636117</v>
       </c>
       <c r="F22">
-        <v>1.026269503604548</v>
+        <v>1.026454649870388</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049672515119562</v>
+        <v>1.050992096224022</v>
       </c>
       <c r="J22">
-        <v>1.034690463933857</v>
+        <v>1.034737469771863</v>
       </c>
       <c r="K22">
-        <v>1.034293721113793</v>
+        <v>1.039810805232117</v>
       </c>
       <c r="L22">
-        <v>1.037917401040952</v>
+        <v>1.037867159411615</v>
       </c>
       <c r="M22">
-        <v>1.041337921502582</v>
+        <v>1.041519641491934</v>
       </c>
       <c r="N22">
-        <v>1.036159843073297</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.013827571890782</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.041432401149422</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.039288071720199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.008322518947863</v>
+        <v>1.006069994595279</v>
       </c>
       <c r="D23">
-        <v>1.022496407836328</v>
+        <v>1.025992717807926</v>
       </c>
       <c r="E23">
-        <v>1.026796305222772</v>
+        <v>1.024351131847529</v>
       </c>
       <c r="F23">
-        <v>1.03038668882529</v>
+        <v>1.027939723246038</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.051760448328487</v>
+        <v>1.051639669671061</v>
       </c>
       <c r="J23">
-        <v>1.038051611161664</v>
+        <v>1.035893511404441</v>
       </c>
       <c r="K23">
-        <v>1.037332194820338</v>
+        <v>1.040764950703686</v>
       </c>
       <c r="L23">
-        <v>1.041554010456224</v>
+        <v>1.039153134337607</v>
       </c>
       <c r="M23">
-        <v>1.045079844768213</v>
+        <v>1.042676808073145</v>
       </c>
       <c r="N23">
-        <v>1.039525763515698</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.014257990140727</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.042348219150837</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.039953116879868</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.023999223000999</v>
+        <v>1.013368933951149</v>
       </c>
       <c r="D24">
-        <v>1.035230499446829</v>
+        <v>1.030954382140647</v>
       </c>
       <c r="E24">
-        <v>1.041818738568381</v>
+        <v>1.030616607342006</v>
       </c>
       <c r="F24">
-        <v>1.045807769283729</v>
+        <v>1.033694635472346</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.059534571954296</v>
+        <v>1.054128440217045</v>
       </c>
       <c r="J24">
-        <v>1.050603745026291</v>
+        <v>1.040361895487638</v>
       </c>
       <c r="K24">
-        <v>1.048665940598693</v>
+        <v>1.044458868612225</v>
       </c>
       <c r="L24">
-        <v>1.055149221609118</v>
+        <v>1.044126579132795</v>
       </c>
       <c r="M24">
-        <v>1.059075524592127</v>
+        <v>1.047154791443824</v>
       </c>
       <c r="N24">
-        <v>1.052095722850162</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.015932149701527</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.045892225074786</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.04255741064137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.040742182298493</v>
+        <v>1.021502397724809</v>
       </c>
       <c r="D25">
-        <v>1.048824710092569</v>
+        <v>1.036502251785863</v>
       </c>
       <c r="E25">
-        <v>1.057895333845691</v>
+        <v>1.0376294540154</v>
       </c>
       <c r="F25">
-        <v>1.06232149343938</v>
+        <v>1.04015290662994</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.067767142793687</v>
+        <v>1.056857304656829</v>
       </c>
       <c r="J25">
-        <v>1.063972118770764</v>
+        <v>1.045327173900255</v>
       </c>
       <c r="K25">
-        <v>1.060709579368793</v>
+        <v>1.048559162535603</v>
       </c>
       <c r="L25">
-        <v>1.069656782521847</v>
+        <v>1.049670412588425</v>
       </c>
       <c r="M25">
-        <v>1.074023677819674</v>
+        <v>1.052158311605256</v>
       </c>
       <c r="N25">
-        <v>1.065483081218726</v>
+        <v>1.01778953706208</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.049852135855347</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.045453636016232</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_46/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.027692971639475</v>
+        <v>1.025798179165141</v>
       </c>
       <c r="D2">
-        <v>1.040716829286533</v>
+        <v>1.038114132888074</v>
       </c>
       <c r="E2">
-        <v>1.042987985415873</v>
+        <v>1.041271371270899</v>
       </c>
       <c r="F2">
-        <v>1.045107049389189</v>
+        <v>1.043765952928585</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.058880856425258</v>
+        <v>1.05741720463513</v>
       </c>
       <c r="J2">
-        <v>1.049075803292531</v>
+        <v>1.047233729664338</v>
       </c>
       <c r="K2">
-        <v>1.05163662608431</v>
+        <v>1.049066836467495</v>
       </c>
       <c r="L2">
-        <v>1.053879234530161</v>
+        <v>1.052184183324519</v>
       </c>
       <c r="M2">
-        <v>1.055971802009009</v>
+        <v>1.054647458859935</v>
       </c>
       <c r="N2">
-        <v>1.019172019472535</v>
+        <v>1.019082710051817</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.052870213235528</v>
+        <v>1.051822101288134</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.04758179366526</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.045773444744117</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02478875431848</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.032085241704679</v>
+        <v>1.02990889830829</v>
       </c>
       <c r="D3">
-        <v>1.04372543904472</v>
+        <v>1.040808236088511</v>
       </c>
       <c r="E3">
-        <v>1.046803578956571</v>
+        <v>1.044830244400883</v>
       </c>
       <c r="F3">
-        <v>1.04863837415657</v>
+        <v>1.047097618132008</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.060303805132669</v>
+        <v>1.058648474291132</v>
       </c>
       <c r="J3">
-        <v>1.05173786925158</v>
+        <v>1.04961614282773</v>
       </c>
       <c r="K3">
-        <v>1.053827819348406</v>
+        <v>1.050944293717901</v>
       </c>
       <c r="L3">
-        <v>1.056870675151893</v>
+        <v>1.054919931013781</v>
       </c>
       <c r="M3">
-        <v>1.058684559984176</v>
+        <v>1.057161357206765</v>
       </c>
       <c r="N3">
-        <v>1.020162194487795</v>
+        <v>1.019766599476674</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.055017140207035</v>
+        <v>1.053811650030165</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.04912849029742</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.04709803080868</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025213081487383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.034870374113011</v>
+        <v>1.032518087289429</v>
       </c>
       <c r="D4">
-        <v>1.045636280245501</v>
+        <v>1.042521428904101</v>
       </c>
       <c r="E4">
-        <v>1.049228641485806</v>
+        <v>1.047094698008961</v>
       </c>
       <c r="F4">
-        <v>1.050886016510264</v>
+        <v>1.049220472897156</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.061195847958912</v>
+        <v>1.059419937221221</v>
       </c>
       <c r="J4">
-        <v>1.053422280479862</v>
+        <v>1.051125031596132</v>
       </c>
       <c r="K4">
-        <v>1.055213431586023</v>
+        <v>1.052132377206921</v>
       </c>
       <c r="L4">
-        <v>1.058767120058003</v>
+        <v>1.056656109856021</v>
       </c>
       <c r="M4">
-        <v>1.060406762137742</v>
+        <v>1.058759039038445</v>
       </c>
       <c r="N4">
-        <v>1.020788091797499</v>
+        <v>1.020199708307969</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.056380119778917</v>
+        <v>1.05507608422605</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.0501090974105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.047939055222256</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025479158261868</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.036033551633166</v>
+        <v>1.033607855996939</v>
       </c>
       <c r="D5">
-        <v>1.046437440956166</v>
+        <v>1.043240122926739</v>
       </c>
       <c r="E5">
-        <v>1.050242951558051</v>
+        <v>1.048041963128642</v>
       </c>
       <c r="F5">
-        <v>1.051826162053594</v>
+        <v>1.05010855198264</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.061567852656267</v>
+        <v>1.059741551604044</v>
       </c>
       <c r="J5">
-        <v>1.054126904067625</v>
+        <v>1.051756268707541</v>
       </c>
       <c r="K5">
-        <v>1.055794561494266</v>
+        <v>1.052631014309421</v>
       </c>
       <c r="L5">
-        <v>1.059560204771022</v>
+        <v>1.057382231216879</v>
       </c>
       <c r="M5">
-        <v>1.061126932975739</v>
+        <v>1.059427207181217</v>
       </c>
       <c r="N5">
-        <v>1.021051534655458</v>
+        <v>1.020382006335451</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.056950074295845</v>
+        <v>1.055604883911744</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.050527065329461</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.048299411960849</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025591257105107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.036234778088075</v>
+        <v>1.033795785348025</v>
       </c>
       <c r="D6">
-        <v>1.046579014742852</v>
+        <v>1.043367049040915</v>
       </c>
       <c r="E6">
-        <v>1.05041873736478</v>
+        <v>1.048205608375738</v>
       </c>
       <c r="F6">
-        <v>1.0519882506748</v>
+        <v>1.050261210435274</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.061634438700127</v>
+        <v>1.059799124358471</v>
       </c>
       <c r="J6">
-        <v>1.054251234999694</v>
+        <v>1.051867319439781</v>
       </c>
       <c r="K6">
-        <v>1.055899160585231</v>
+        <v>1.052720965278245</v>
       </c>
       <c r="L6">
-        <v>1.059698843514495</v>
+        <v>1.057508748753886</v>
       </c>
       <c r="M6">
-        <v>1.061252093023287</v>
+        <v>1.059542952206411</v>
       </c>
       <c r="N6">
-        <v>1.021100170648374</v>
+        <v>1.020415436615717</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.057049127880719</v>
+        <v>1.055696486465158</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.050609645538694</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.048372510418592</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025612683246201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.034904057416079</v>
+        <v>1.032558335031114</v>
       </c>
       <c r="D7">
-        <v>1.045667351105728</v>
+        <v>1.042557054778726</v>
       </c>
       <c r="E7">
-        <v>1.04925864522924</v>
+        <v>1.047130650051582</v>
       </c>
       <c r="F7">
-        <v>1.050911421027444</v>
+        <v>1.049250523734442</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.061213028978002</v>
+        <v>1.059440517038258</v>
       </c>
       <c r="J7">
-        <v>1.053449398028209</v>
+        <v>1.051158534837941</v>
       </c>
       <c r="K7">
-        <v>1.055241339382989</v>
+        <v>1.052164776740631</v>
       </c>
       <c r="L7">
-        <v>1.058793987819707</v>
+        <v>1.056688852639282</v>
       </c>
       <c r="M7">
-        <v>1.060429086890013</v>
+        <v>1.058785953354159</v>
       </c>
       <c r="N7">
-        <v>1.0208041406122</v>
+        <v>1.020240562495294</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.056397787945031</v>
+        <v>1.055097384682521</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.050148665115691</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.047983812157858</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.025491427375862</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.02921253451463</v>
+        <v>1.027249716761902</v>
       </c>
       <c r="D8">
-        <v>1.041766870153888</v>
+        <v>1.039078553548453</v>
       </c>
       <c r="E8">
-        <v>1.044307711881348</v>
+        <v>1.042528953035749</v>
       </c>
       <c r="F8">
-        <v>1.046324745505932</v>
+        <v>1.044935377042509</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.059383193576155</v>
+        <v>1.057869557422294</v>
       </c>
       <c r="J8">
-        <v>1.050005994816858</v>
+        <v>1.048095946412656</v>
       </c>
       <c r="K8">
-        <v>1.052409311494041</v>
+        <v>1.049753973207714</v>
       </c>
       <c r="L8">
-        <v>1.054919177955044</v>
+        <v>1.053162084159585</v>
       </c>
       <c r="M8">
-        <v>1.056911755056469</v>
+        <v>1.055539220108607</v>
       </c>
       <c r="N8">
-        <v>1.019525989231891</v>
+        <v>1.019419148334895</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.05361411019928</v>
+        <v>1.052527859332954</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.048150756013045</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.046284199051444</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024954094470163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.018695606510952</v>
+        <v>1.017430591949915</v>
       </c>
       <c r="D9">
-        <v>1.034573426141217</v>
+        <v>1.032654828495896</v>
       </c>
       <c r="E9">
-        <v>1.035204373989822</v>
+        <v>1.034060434222953</v>
       </c>
       <c r="F9">
-        <v>1.037921239583944</v>
+        <v>1.037026457337827</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.055911841281213</v>
+        <v>1.054867053847482</v>
       </c>
       <c r="J9">
-        <v>1.043605018982586</v>
+        <v>1.042382497650682</v>
       </c>
       <c r="K9">
-        <v>1.047129416370689</v>
+        <v>1.045239424314469</v>
       </c>
       <c r="L9">
-        <v>1.047750986470694</v>
+        <v>1.04662405975336</v>
       </c>
       <c r="M9">
-        <v>1.050427636872539</v>
+        <v>1.049546069673919</v>
       </c>
       <c r="N9">
-        <v>1.017135180253576</v>
+        <v>1.0177859396017</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.048482439055767</v>
+        <v>1.047784745012744</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.044414454161136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.043088760468756</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.02391743152541</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.011486054837596</v>
+        <v>1.010750787717503</v>
       </c>
       <c r="D10">
-        <v>1.029679384859062</v>
+        <v>1.028326455047059</v>
       </c>
       <c r="E10">
-        <v>1.029043939753162</v>
+        <v>1.028380193883627</v>
       </c>
       <c r="F10">
-        <v>1.032296837073894</v>
+        <v>1.031777204662566</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.053511716118135</v>
+        <v>1.05281336412287</v>
       </c>
       <c r="J10">
-        <v>1.039251253821185</v>
+        <v>1.038544260927657</v>
       </c>
       <c r="K10">
-        <v>1.043532677371266</v>
+        <v>1.042202432225976</v>
       </c>
       <c r="L10">
-        <v>1.042907877240878</v>
+        <v>1.042255268552157</v>
       </c>
       <c r="M10">
-        <v>1.046106459974602</v>
+        <v>1.045595474413614</v>
       </c>
       <c r="N10">
-        <v>1.015537752592062</v>
+        <v>1.016827296539002</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.045113574232089</v>
+        <v>1.044709190698287</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.041888027430988</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.040959792839259</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023230094191051</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.009408615213634</v>
+        <v>1.008797102925667</v>
       </c>
       <c r="D11">
-        <v>1.028396801472787</v>
+        <v>1.027180704598657</v>
       </c>
       <c r="E11">
-        <v>1.027656553930792</v>
+        <v>1.027105330920609</v>
       </c>
       <c r="F11">
-        <v>1.03139638945911</v>
+        <v>1.030965103329206</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.05304739735758</v>
+        <v>1.052432823248195</v>
       </c>
       <c r="J11">
-        <v>1.038395156102366</v>
+        <v>1.037808436821664</v>
       </c>
       <c r="K11">
-        <v>1.042802355002634</v>
+        <v>1.041607612990306</v>
       </c>
       <c r="L11">
-        <v>1.042075098529067</v>
+        <v>1.041533565043664</v>
       </c>
       <c r="M11">
-        <v>1.045749548447115</v>
+        <v>1.045325771399858</v>
       </c>
       <c r="N11">
-        <v>1.015475353439089</v>
+        <v>1.017009744572064</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.045263939591939</v>
+        <v>1.044928737198718</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.041404227658292</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.040575018899156</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.02321563429843</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.009045182110351</v>
+        <v>1.00841385945698</v>
       </c>
       <c r="D12">
-        <v>1.02823735411123</v>
+        <v>1.027009826550089</v>
       </c>
       <c r="E12">
-        <v>1.02762894545996</v>
+        <v>1.027060314699936</v>
       </c>
       <c r="F12">
-        <v>1.031637418280893</v>
+        <v>1.03119275458378</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.053095485406833</v>
+        <v>1.052472722574043</v>
       </c>
       <c r="J12">
-        <v>1.038471606251976</v>
+        <v>1.037866349472623</v>
       </c>
       <c r="K12">
-        <v>1.042842854726011</v>
+        <v>1.041637231850462</v>
       </c>
       <c r="L12">
-        <v>1.042245294365396</v>
+        <v>1.041686817720898</v>
       </c>
       <c r="M12">
-        <v>1.046182599196484</v>
+        <v>1.045745794844781</v>
       </c>
       <c r="N12">
-        <v>1.01569597063577</v>
+        <v>1.017242742750012</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.045930463006356</v>
+        <v>1.045585071443561</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.041432861810724</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.040595959665164</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023306071146582</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.009998583880105</v>
+        <v>1.009218296839565</v>
       </c>
       <c r="D13">
-        <v>1.028954875818294</v>
+        <v>1.027587980414135</v>
       </c>
       <c r="E13">
-        <v>1.02866771530446</v>
+        <v>1.027965137459303</v>
       </c>
       <c r="F13">
-        <v>1.032800725072939</v>
+        <v>1.032251626660337</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I13">
-        <v>1.053559937546938</v>
+        <v>1.052848473523636</v>
       </c>
       <c r="J13">
-        <v>1.039294635086215</v>
+        <v>1.038546367416659</v>
       </c>
       <c r="K13">
-        <v>1.043505358981514</v>
+        <v>1.042162734169864</v>
       </c>
       <c r="L13">
-        <v>1.043223290345474</v>
+        <v>1.042533186047903</v>
       </c>
       <c r="M13">
-        <v>1.047283367981757</v>
+        <v>1.046743915495687</v>
       </c>
       <c r="N13">
-        <v>1.016165251724399</v>
+        <v>1.01750257603025</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.047075588169734</v>
+        <v>1.046649135991532</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.041898796051023</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.040964780771117</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023490655320752</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.011256055166063</v>
+        <v>1.010316338639022</v>
       </c>
       <c r="D14">
-        <v>1.029850822782507</v>
+        <v>1.028331621378471</v>
       </c>
       <c r="E14">
-        <v>1.029870066152249</v>
+        <v>1.029023941484556</v>
       </c>
       <c r="F14">
-        <v>1.034025552855472</v>
+        <v>1.033364528280525</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.054070534017524</v>
+        <v>1.053262477827406</v>
       </c>
       <c r="J14">
-        <v>1.040202948454793</v>
+        <v>1.039301205878067</v>
       </c>
       <c r="K14">
-        <v>1.044247189858628</v>
+        <v>1.042754613092717</v>
       </c>
       <c r="L14">
-        <v>1.044266096632874</v>
+        <v>1.043434787367851</v>
       </c>
       <c r="M14">
-        <v>1.048349277298555</v>
+        <v>1.047699704309358</v>
       </c>
       <c r="N14">
-        <v>1.016603379304615</v>
+        <v>1.017698163792464</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.048090404101327</v>
+        <v>1.047576967016204</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.042424697296877</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.041384794312057</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023663125787613</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.011861037943997</v>
+        <v>1.010854113000941</v>
       </c>
       <c r="D15">
-        <v>1.030271804793969</v>
+        <v>1.028687404880651</v>
       </c>
       <c r="E15">
-        <v>1.030412109644337</v>
+        <v>1.029505390526875</v>
       </c>
       <c r="F15">
-        <v>1.034547538272724</v>
+        <v>1.033839261261098</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.054293617833934</v>
+        <v>1.053444314713244</v>
       </c>
       <c r="J15">
-        <v>1.040600418743504</v>
+        <v>1.039633815875772</v>
       </c>
       <c r="K15">
-        <v>1.04457567397191</v>
+        <v>1.043018825390514</v>
       </c>
       <c r="L15">
-        <v>1.044713544328217</v>
+        <v>1.043822573272895</v>
       </c>
       <c r="M15">
-        <v>1.048777600568879</v>
+        <v>1.048081495153726</v>
       </c>
       <c r="N15">
-        <v>1.016772138008293</v>
+        <v>1.017760888326241</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.048466268091651</v>
+        <v>1.04791606501153</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.042662756343736</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.041577981786215</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023730817043959</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.014724614234192</v>
+        <v>1.013456757830611</v>
       </c>
       <c r="D16">
-        <v>1.032201908350707</v>
+        <v>1.030355544741753</v>
       </c>
       <c r="E16">
-        <v>1.032821378390375</v>
+        <v>1.031678772575019</v>
       </c>
       <c r="F16">
-        <v>1.03673373117805</v>
+        <v>1.035841468887734</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.055232944338229</v>
+        <v>1.054219235573334</v>
       </c>
       <c r="J16">
-        <v>1.042291007422643</v>
+        <v>1.041071349260784</v>
       </c>
       <c r="K16">
-        <v>1.045978065613671</v>
+        <v>1.044162394668173</v>
       </c>
       <c r="L16">
-        <v>1.0465872696618</v>
+        <v>1.045463611720794</v>
       </c>
       <c r="M16">
-        <v>1.050435150515141</v>
+        <v>1.049557536741314</v>
       </c>
       <c r="N16">
-        <v>1.017358913595502</v>
+        <v>1.017931133995019</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.04973793292619</v>
+        <v>1.049044245343967</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.043657410106136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.042389940371109</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023972617189377</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.016267633931826</v>
+        <v>1.014892846248795</v>
       </c>
       <c r="D17">
-        <v>1.033218066672537</v>
+        <v>1.031257314585607</v>
       </c>
       <c r="E17">
-        <v>1.034044021479137</v>
+        <v>1.032804282693036</v>
       </c>
       <c r="F17">
-        <v>1.037767474207683</v>
+        <v>1.036799383358762</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.055685776928077</v>
+        <v>1.054601477673503</v>
       </c>
       <c r="J17">
-        <v>1.043114711957569</v>
+        <v>1.041790504111083</v>
       </c>
       <c r="K17">
-        <v>1.046667695797852</v>
+        <v>1.044738621404635</v>
       </c>
       <c r="L17">
-        <v>1.047480352706597</v>
+        <v>1.046260584015925</v>
       </c>
       <c r="M17">
-        <v>1.051144194539015</v>
+        <v>1.050191549612223</v>
       </c>
       <c r="N17">
-        <v>1.01758137890369</v>
+        <v>1.017990157599818</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.050170252734045</v>
+        <v>1.049417184399932</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.044147554309564</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.04280015368959</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.024070040931545</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.016780052437131</v>
+        <v>1.015412376956574</v>
       </c>
       <c r="D18">
-        <v>1.033504726881151</v>
+        <v>1.031540435841435</v>
       </c>
       <c r="E18">
-        <v>1.034301653955811</v>
+        <v>1.033067629101184</v>
       </c>
       <c r="F18">
-        <v>1.037829437146139</v>
+        <v>1.036865531358344</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.055737745375846</v>
+        <v>1.054652986833821</v>
       </c>
       <c r="J18">
-        <v>1.043223781879244</v>
+        <v>1.041905507032223</v>
       </c>
       <c r="K18">
-        <v>1.046769144420772</v>
+        <v>1.044836077851943</v>
       </c>
       <c r="L18">
-        <v>1.047553446809337</v>
+        <v>1.046338981611708</v>
       </c>
       <c r="M18">
-        <v>1.051025641815425</v>
+        <v>1.050076876479625</v>
       </c>
       <c r="N18">
-        <v>1.017483070033788</v>
+        <v>1.017899424077995</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.04984072203223</v>
+        <v>1.049090566514491</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.044207766221992</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.042856403045528</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024034228990849</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.016382231547463</v>
+        <v>1.015112274291359</v>
       </c>
       <c r="D19">
-        <v>1.033158157985103</v>
+        <v>1.031280990311966</v>
       </c>
       <c r="E19">
-        <v>1.033699349238535</v>
+        <v>1.032552875731627</v>
       </c>
       <c r="F19">
-        <v>1.037015535686387</v>
+        <v>1.036119474128592</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.055444899052072</v>
+        <v>1.054416473074564</v>
       </c>
       <c r="J19">
-        <v>1.042709213601128</v>
+        <v>1.04148490425899</v>
       </c>
       <c r="K19">
-        <v>1.046366462912554</v>
+        <v>1.04451899839192</v>
       </c>
       <c r="L19">
-        <v>1.046899116330773</v>
+        <v>1.045770743169403</v>
       </c>
       <c r="M19">
-        <v>1.050163235466998</v>
+        <v>1.049281200902229</v>
       </c>
       <c r="N19">
-        <v>1.017118018277483</v>
+        <v>1.017666039999181</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.048836130094419</v>
+        <v>1.048138512270801</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.043929393365099</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.042639182085727</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023887093009213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.013411926000647</v>
+        <v>1.012497475047559</v>
       </c>
       <c r="D20">
-        <v>1.031005838864186</v>
+        <v>1.029472971280991</v>
       </c>
       <c r="E20">
-        <v>1.030691608145275</v>
+        <v>1.029865730001212</v>
       </c>
       <c r="F20">
-        <v>1.033796345985041</v>
+        <v>1.033149935181683</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.05417367420721</v>
+        <v>1.053362669958178</v>
       </c>
       <c r="J20">
-        <v>1.040435453877248</v>
+        <v>1.03955499751299</v>
       </c>
       <c r="K20">
-        <v>1.044524551043207</v>
+        <v>1.043016642411277</v>
       </c>
       <c r="L20">
-        <v>1.044215429022156</v>
+        <v>1.043402996932246</v>
       </c>
       <c r="M20">
-        <v>1.047269865548292</v>
+        <v>1.046633895560943</v>
       </c>
       <c r="N20">
-        <v>1.015992015849637</v>
+        <v>1.01701794737913</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.046023814521893</v>
+        <v>1.045520515092818</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.042631009329356</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.041581268884588</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.02342002304346</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.007765706405309</v>
+        <v>1.00744037153071</v>
       </c>
       <c r="D21">
-        <v>1.027154955914487</v>
+        <v>1.026202429029966</v>
       </c>
       <c r="E21">
-        <v>1.025805705752804</v>
+        <v>1.025512243441547</v>
       </c>
       <c r="F21">
-        <v>1.029271126100492</v>
+        <v>1.029041237531874</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.052229446323292</v>
+        <v>1.051783989572517</v>
       </c>
       <c r="J21">
-        <v>1.036942296869721</v>
+        <v>1.036630274319626</v>
       </c>
       <c r="K21">
-        <v>1.041639506731894</v>
+        <v>1.040703829866692</v>
       </c>
       <c r="L21">
-        <v>1.040314136524416</v>
+        <v>1.040025878904996</v>
       </c>
       <c r="M21">
-        <v>1.043718386921352</v>
+        <v>1.04349253969901</v>
       </c>
       <c r="N21">
-        <v>1.014661487118934</v>
+        <v>1.016620437371608</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.043172556399004</v>
+        <v>1.042993814102707</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.040594422168806</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.039949598867273</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022897792523948</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.004179635358493</v>
+        <v>1.004230341644218</v>
       </c>
       <c r="D22">
-        <v>1.024713528988668</v>
+        <v>1.024131135405712</v>
       </c>
       <c r="E22">
-        <v>1.022732984636117</v>
+        <v>1.022778683519259</v>
       </c>
       <c r="F22">
-        <v>1.026454649870388</v>
+        <v>1.026490466423073</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.050992096224022</v>
+        <v>1.050779098554087</v>
       </c>
       <c r="J22">
-        <v>1.034737469771863</v>
+        <v>1.034785977035402</v>
       </c>
       <c r="K22">
-        <v>1.039810805232117</v>
+        <v>1.039239242608095</v>
       </c>
       <c r="L22">
-        <v>1.037867159411615</v>
+        <v>1.037912004799642</v>
       </c>
       <c r="M22">
-        <v>1.041519641491934</v>
+        <v>1.041554795417301</v>
       </c>
       <c r="N22">
-        <v>1.013827571890782</v>
+        <v>1.016372060881619</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.041432401149422</v>
+        <v>1.041460223087884</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.039288071720199</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.038899393362546</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022569260429816</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.006069994595279</v>
+        <v>1.005906072160773</v>
       </c>
       <c r="D23">
-        <v>1.025992717807926</v>
+        <v>1.025201858376672</v>
       </c>
       <c r="E23">
-        <v>1.024351131847529</v>
+        <v>1.024203328456846</v>
       </c>
       <c r="F23">
-        <v>1.027939723246038</v>
+        <v>1.027823912427223</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.051639669671061</v>
+        <v>1.051295050761478</v>
       </c>
       <c r="J23">
-        <v>1.035893511404441</v>
+        <v>1.035736484017382</v>
       </c>
       <c r="K23">
-        <v>1.040764950703686</v>
+        <v>1.039988417754976</v>
       </c>
       <c r="L23">
-        <v>1.039153134337607</v>
+        <v>1.039008017403232</v>
       </c>
       <c r="M23">
-        <v>1.042676808073145</v>
+        <v>1.042563083073265</v>
       </c>
       <c r="N23">
-        <v>1.014257990140727</v>
+        <v>1.016447789743194</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.042348219150837</v>
+        <v>1.0422582136629</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.039953116879868</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.039418572771848</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022730319861602</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.013368933951149</v>
+        <v>1.012469710841402</v>
       </c>
       <c r="D24">
-        <v>1.030954382140647</v>
+        <v>1.029434274656055</v>
       </c>
       <c r="E24">
-        <v>1.030616607342006</v>
+        <v>1.029804413428743</v>
       </c>
       <c r="F24">
-        <v>1.033694635472346</v>
+        <v>1.033058879810865</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.054128440217045</v>
+        <v>1.053325921714014</v>
       </c>
       <c r="J24">
-        <v>1.040361895487638</v>
+        <v>1.039496057371182</v>
       </c>
       <c r="K24">
-        <v>1.044458868612225</v>
+        <v>1.04296348345538</v>
       </c>
       <c r="L24">
-        <v>1.044126579132795</v>
+        <v>1.043327593825583</v>
       </c>
       <c r="M24">
-        <v>1.047154791443824</v>
+        <v>1.046529293839305</v>
       </c>
       <c r="N24">
-        <v>1.015932149701527</v>
+        <v>1.016977819756732</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.045892225074786</v>
+        <v>1.045397189159656</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.04255741064137</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.041513845431072</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023392400135009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.021502397724809</v>
+        <v>1.020031850595663</v>
       </c>
       <c r="D25">
-        <v>1.036502251785863</v>
+        <v>1.034363855062913</v>
       </c>
       <c r="E25">
-        <v>1.0376294540154</v>
+        <v>1.036298867568921</v>
       </c>
       <c r="F25">
-        <v>1.04015290662994</v>
+        <v>1.039112521552248</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.056857304656829</v>
+        <v>1.055677507200176</v>
       </c>
       <c r="J25">
-        <v>1.045327173900255</v>
+        <v>1.043903370913492</v>
       </c>
       <c r="K25">
-        <v>1.048559162535603</v>
+        <v>1.046451149295848</v>
       </c>
       <c r="L25">
-        <v>1.049670412588425</v>
+        <v>1.048358661287116</v>
       </c>
       <c r="M25">
-        <v>1.052158311605256</v>
+        <v>1.051132558357136</v>
       </c>
       <c r="N25">
-        <v>1.01778953706208</v>
+        <v>1.018194423586525</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.049852135855347</v>
+        <v>1.049040330847985</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.045453636016232</v>
+        <v>1.043976604367246</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024201351198985</v>
       </c>
     </row>
   </sheetData>
